--- a/easy-trade/easy-settle/src/main/resources/doc/template.xlsx
+++ b/easy-trade/easy-settle/src/main/resources/doc/template.xlsx
@@ -120,10 +120,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>优惠券类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,6 +177,10 @@
   </si>
   <si>
     <t>优惠券数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,6 +526,27 @@
     <xf numFmtId="58" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -597,27 +618,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -967,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -988,16 +988,16 @@
     <row r="3" spans="2:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
       <c r="L3" s="32"/>
       <c r="M3" s="3"/>
     </row>
@@ -1009,12 +1009,12 @@
       <c r="F4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="41"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="48"/>
     </row>
     <row r="5" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="25"/>
@@ -1024,12 +1024,12 @@
       <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="39"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="46"/>
     </row>
     <row r="6" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
@@ -1039,14 +1039,14 @@
       <c r="F6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38">
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45">
         <v>42186</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="39"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="46"/>
       <c r="M6"/>
     </row>
     <row r="7" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1057,12 +1057,12 @@
       <c r="F7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="39"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="46"/>
       <c r="M7"/>
     </row>
     <row r="8" spans="2:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1071,12 +1071,12 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="49"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="56"/>
       <c r="M8"/>
     </row>
     <row r="9" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1156,61 +1156,61 @@
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="58"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="47"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="54"/>
     </row>
     <row r="14" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="45"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="52"/>
     </row>
     <row r="15" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="61"/>
+      <c r="B15" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="41"/>
       <c r="D15" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="67"/>
-      <c r="G15" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="40"/>
+      <c r="G15" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="40"/>
+      <c r="I15" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="67"/>
-      <c r="I15" s="66" t="s">
+      <c r="J15" s="40"/>
+      <c r="K15" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="67"/>
-      <c r="K15" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15" s="67"/>
+      <c r="L15" s="40"/>
     </row>
     <row r="16" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="36"/>
@@ -1369,19 +1369,19 @@
       <c r="L27" s="35"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B28" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="65"/>
+      <c r="B28" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="38"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B29" s="27"/>
@@ -1411,16 +1411,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="G5:L5"/>
     <mergeCell ref="G4:L4"/>
@@ -1432,6 +1422,16 @@
     <mergeCell ref="B13:D14"/>
     <mergeCell ref="E13:F14"/>
     <mergeCell ref="G13:J14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="K15:L15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.37" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1479,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>8</v>
@@ -1488,7 +1488,7 @@
         <v>20</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>3</v>
@@ -1497,10 +1497,10 @@
         <v>4</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K1" s="13" t="s">
         <v>21</v>
@@ -1512,16 +1512,16 @@
         <v>23</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P1" s="13" t="s">
         <v>24</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R1" s="13" t="s">
         <v>5</v>

--- a/easy-trade/easy-settle/src/main/resources/doc/template.xlsx
+++ b/easy-trade/easy-settle/src/main/resources/doc/template.xlsx
@@ -84,22 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>户  名：上海容易网电子商务有限公司（基本户）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账  号：121911708310101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户行：招商银行上海徐家汇支行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地  址：上海市徐汇区漕溪北路18号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>优惠券号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,6 +165,22 @@
   </si>
   <si>
     <t>优惠券名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户  名：上海摩购电子商务有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账  号：121917149410501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户行：招商银行股份有限公司上海大宁支行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地  址：上海市徐汇区漕溪北路88号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,6 +526,87 @@
     <xf numFmtId="58" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -537,87 +618,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -640,37 +640,67 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>591656</xdr:rowOff>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="QQ截图20150617140037111.png"/>
+        <xdr:cNvPr id="5" name="图片 1"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="447675" y="466726"/>
-          <a:ext cx="1724025" cy="553555"/>
+          <a:off x="161925" y="428625"/>
+          <a:ext cx="1943100" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -967,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -988,16 +1018,16 @@
     <row r="3" spans="2:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
       <c r="L3" s="32"/>
       <c r="M3" s="3"/>
     </row>
@@ -1009,12 +1039,12 @@
       <c r="F4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="41"/>
     </row>
     <row r="5" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="25"/>
@@ -1024,12 +1054,12 @@
       <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="46"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="39"/>
     </row>
     <row r="6" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
@@ -1039,14 +1069,14 @@
       <c r="F6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45">
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38">
         <v>42186</v>
       </c>
-      <c r="K6" s="45"/>
-      <c r="L6" s="46"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="39"/>
       <c r="M6"/>
     </row>
     <row r="7" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1057,12 +1087,12 @@
       <c r="F7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="46"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
       <c r="M7"/>
     </row>
     <row r="8" spans="2:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1071,17 +1101,17 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="56"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="49"/>
       <c r="M8"/>
     </row>
     <row r="9" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="21" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -1100,7 +1130,7 @@
     </row>
     <row r="10" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="21" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -1119,7 +1149,7 @@
     </row>
     <row r="11" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="21" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -1138,7 +1168,7 @@
     </row>
     <row r="12" spans="2:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="21" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -1156,61 +1186,61 @@
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B13" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="54"/>
+      <c r="B13" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="47"/>
     </row>
     <row r="14" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="60"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="52"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="45"/>
     </row>
     <row r="15" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="41"/>
+      <c r="B15" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="61"/>
       <c r="D15" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="40"/>
-      <c r="K15" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="L15" s="40"/>
+        <v>22</v>
+      </c>
+      <c r="E15" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="67"/>
+      <c r="G15" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="67"/>
+      <c r="I15" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="67"/>
+      <c r="K15" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="67"/>
     </row>
     <row r="16" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="36"/>
@@ -1369,19 +1399,19 @@
       <c r="L27" s="35"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B28" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="38"/>
+      <c r="B28" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="65"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B29" s="27"/>
@@ -1411,6 +1441,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="G5:L5"/>
     <mergeCell ref="G4:L4"/>
@@ -1422,16 +1462,6 @@
     <mergeCell ref="B13:D14"/>
     <mergeCell ref="E13:F14"/>
     <mergeCell ref="G13:J14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="K15:L15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.37" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1479,16 +1509,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>3</v>
@@ -1497,31 +1527,31 @@
         <v>4</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="R1" s="13" t="s">
         <v>5</v>

--- a/easy-trade/easy-settle/src/main/resources/doc/template.xlsx
+++ b/easy-trade/easy-settle/src/main/resources/doc/template.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="14955" windowHeight="4620"/>
   </bookViews>
   <sheets>
     <sheet name="商户对账单汇总" sheetId="1" r:id="rId1"/>
-    <sheet name="商户账务明细" sheetId="4" r:id="rId2"/>
+    <sheet name="卡券账务明细" sheetId="4" r:id="rId2"/>
+    <sheet name="订单账务明细" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">商户账务明细!$A$1:$S$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">卡券账务明细!$A$1:$S$1</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>账期：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,132 +69,209 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>优惠券号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买家实际支付金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用红包金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券补贴金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买家打款账户姓名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付总金额：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容易网补贴总金额：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验券时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>券名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>券现价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>券面值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导购帐号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买家帐号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>导购帐号名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账  号：121917149410501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户行：招商银行股份有限公司上海大宁支行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地  址：上海市徐汇区漕溪北路88号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户行名称：</t>
+  </si>
+  <si>
+    <t>订单类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分抵扣金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包抵扣金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包抵扣金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分抵扣金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券补贴金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品补贴金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单生成时间</t>
+  </si>
+  <si>
+    <t>订单状态</t>
+  </si>
+  <si>
+    <t>订单号</t>
+  </si>
+  <si>
+    <t>商品名称</t>
+  </si>
+  <si>
+    <t>商场</t>
+  </si>
+  <si>
+    <t>店铺</t>
+  </si>
+  <si>
+    <t>原价</t>
+  </si>
+  <si>
+    <t>支付金额</t>
+  </si>
+  <si>
+    <t>积分抵扣金额</t>
+  </si>
+  <si>
+    <t>使用红包金额</t>
+  </si>
+  <si>
+    <t>付款方式</t>
+  </si>
+  <si>
+    <t>付款时间</t>
+  </si>
+  <si>
+    <t>发货时间</t>
+  </si>
+  <si>
+    <t>确认收货时间</t>
+  </si>
+  <si>
+    <t>买家手机</t>
+  </si>
+  <si>
+    <t>收款名称：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帐号：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>打款方式：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>收款名称：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帐号：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户行名称：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买家实际支付金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用红包金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券补贴金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买家打款账户姓名</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收入类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应付总金额：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>容易网补贴总金额：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验券时间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>券名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>券现价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>券面值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导购帐号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买家帐号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>导购帐号名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>券面值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补贴金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券总金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>户  名：上海摩购电子商务有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>账  号：121917149410501</t>
+    <t>小计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开户行：招商银行股份有限公司上海大宁支行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地  址：上海市徐汇区漕溪北路88号</t>
+    <t>总计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,16 +346,47 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="9"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -406,6 +515,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -416,7 +551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -520,11 +655,96 @@
     <xf numFmtId="58" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -541,17 +761,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -583,41 +803,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -658,10 +845,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -684,14 +871,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cmpd="sng">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -709,7 +896,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -783,7 +970,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -818,7 +1004,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -994,44 +1179,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:P33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="10" width="9.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.75" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="2.125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.375" style="7" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="10" width="9.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="9.375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="9.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="7.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="16384" width="9" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" ht="17.25" thickBot="1"/>
+    <row r="3" spans="2:16" ht="50.25" customHeight="1" thickBot="1">
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="2:16" ht="21" customHeight="1">
       <c r="B4" s="24"/>
       <c r="C4" s="8"/>
       <c r="D4" s="23"/>
@@ -1039,14 +1226,16 @@
       <c r="F4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="41"/>
-    </row>
-    <row r="5" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="70"/>
+    </row>
+    <row r="5" spans="2:16" ht="21" customHeight="1">
       <c r="B5" s="25"/>
       <c r="C5" s="17"/>
       <c r="D5" s="6"/>
@@ -1054,14 +1243,16 @@
       <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="39"/>
-    </row>
-    <row r="6" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="68"/>
+    </row>
+    <row r="6" spans="2:16" ht="21" customHeight="1">
       <c r="B6" s="25"/>
       <c r="C6" s="17"/>
       <c r="D6" s="6"/>
@@ -1069,17 +1260,17 @@
       <c r="F6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38">
-        <v>42186</v>
-      </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="39"/>
-      <c r="M6"/>
-    </row>
-    <row r="7" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="68"/>
+      <c r="O6"/>
+    </row>
+    <row r="7" spans="2:16" ht="21" customHeight="1">
       <c r="B7" s="25"/>
       <c r="C7" s="17"/>
       <c r="D7" s="6"/>
@@ -1087,381 +1278,722 @@
       <c r="F7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="39"/>
-      <c r="M7"/>
-    </row>
-    <row r="8" spans="2:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="68"/>
+      <c r="O7"/>
+    </row>
+    <row r="8" spans="2:16" ht="21" customHeight="1" thickBot="1">
       <c r="B8" s="26"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="49"/>
-      <c r="M8"/>
-    </row>
-    <row r="9" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="78"/>
+      <c r="O8"/>
+    </row>
+    <row r="9" spans="2:16" ht="20.25" customHeight="1">
       <c r="B9" s="21" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="5"/>
       <c r="G9" s="21" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="2:16" ht="20.25" customHeight="1">
       <c r="B10" s="21" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="5"/>
       <c r="G10" s="21" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="2:16" ht="20.25" customHeight="1">
       <c r="B11" s="21" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="21" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="2:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="2:16" ht="20.25" customHeight="1" thickBot="1">
       <c r="B12" s="21" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="21" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B13" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="47"/>
-    </row>
-    <row r="14" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="45"/>
-    </row>
-    <row r="15" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="61" t="s">
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="71">
+        <f>SUM(M30,M25)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="72"/>
+      <c r="G13" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="71">
+        <f>SUM(G25,I25,K25,G30,I30,K30)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="72"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="76"/>
+    </row>
+    <row r="14" spans="2:16" ht="17.25" thickBot="1">
+      <c r="B14" s="82"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="74"/>
+    </row>
+    <row r="15" spans="2:16" ht="17.25" thickBot="1">
+      <c r="B15" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="65"/>
+      <c r="D15" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="63"/>
+      <c r="G15" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="63"/>
+      <c r="I15" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="63"/>
+      <c r="K15" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="63"/>
+      <c r="M15" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="63"/>
+    </row>
+    <row r="16" spans="2:16" ht="17.25" thickBot="1">
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="53">
+        <v>0</v>
+      </c>
+      <c r="H16" s="58"/>
+      <c r="I16" s="53">
+        <v>0</v>
+      </c>
+      <c r="J16" s="58"/>
+      <c r="K16" s="53">
+        <v>0</v>
+      </c>
+      <c r="L16" s="58"/>
+      <c r="M16" s="53">
+        <v>0</v>
+      </c>
+      <c r="N16" s="58"/>
+    </row>
+    <row r="17" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B17" s="59"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="53">
+        <v>0</v>
+      </c>
+      <c r="H17" s="58"/>
+      <c r="I17" s="53">
+        <v>0</v>
+      </c>
+      <c r="J17" s="58"/>
+      <c r="K17" s="53">
+        <v>0</v>
+      </c>
+      <c r="L17" s="58"/>
+      <c r="M17" s="53">
+        <v>0</v>
+      </c>
+      <c r="N17" s="58"/>
+    </row>
+    <row r="18" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="53">
+        <v>0</v>
+      </c>
+      <c r="H18" s="58"/>
+      <c r="I18" s="53">
+        <v>0</v>
+      </c>
+      <c r="J18" s="58"/>
+      <c r="K18" s="53">
+        <v>0</v>
+      </c>
+      <c r="L18" s="58"/>
+      <c r="M18" s="53">
+        <v>0</v>
+      </c>
+      <c r="N18" s="58"/>
+    </row>
+    <row r="19" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="53">
+        <v>0</v>
+      </c>
+      <c r="H19" s="58"/>
+      <c r="I19" s="53">
+        <v>0</v>
+      </c>
+      <c r="J19" s="58"/>
+      <c r="K19" s="53">
+        <v>0</v>
+      </c>
+      <c r="L19" s="58"/>
+      <c r="M19" s="53">
+        <v>0</v>
+      </c>
+      <c r="N19" s="58"/>
+    </row>
+    <row r="20" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B20" s="59"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="53">
+        <v>0</v>
+      </c>
+      <c r="H20" s="58"/>
+      <c r="I20" s="53">
+        <v>0</v>
+      </c>
+      <c r="J20" s="58"/>
+      <c r="K20" s="53">
+        <v>0</v>
+      </c>
+      <c r="L20" s="58"/>
+      <c r="M20" s="53">
+        <v>0</v>
+      </c>
+      <c r="N20" s="58"/>
+    </row>
+    <row r="21" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B21" s="59"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="53">
+        <v>0</v>
+      </c>
+      <c r="H21" s="58"/>
+      <c r="I21" s="53">
+        <v>0</v>
+      </c>
+      <c r="J21" s="58"/>
+      <c r="K21" s="53">
+        <v>0</v>
+      </c>
+      <c r="L21" s="58"/>
+      <c r="M21" s="53">
+        <v>0</v>
+      </c>
+      <c r="N21" s="58"/>
+    </row>
+    <row r="22" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B22" s="59"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="53">
+        <v>0</v>
+      </c>
+      <c r="H22" s="58"/>
+      <c r="I22" s="53">
+        <v>0</v>
+      </c>
+      <c r="J22" s="58"/>
+      <c r="K22" s="53">
+        <v>0</v>
+      </c>
+      <c r="L22" s="58"/>
+      <c r="M22" s="53">
+        <v>0</v>
+      </c>
+      <c r="N22" s="58"/>
+    </row>
+    <row r="23" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B23" s="59"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="53">
+        <v>0</v>
+      </c>
+      <c r="H23" s="58"/>
+      <c r="I23" s="53">
+        <v>0</v>
+      </c>
+      <c r="J23" s="58"/>
+      <c r="K23" s="53">
+        <v>0</v>
+      </c>
+      <c r="L23" s="58"/>
+      <c r="M23" s="53">
+        <v>0</v>
+      </c>
+      <c r="N23" s="58"/>
+    </row>
+    <row r="24" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B24" s="59"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="53">
+        <v>0</v>
+      </c>
+      <c r="H24" s="58"/>
+      <c r="I24" s="53">
+        <v>0</v>
+      </c>
+      <c r="J24" s="58"/>
+      <c r="K24" s="53">
+        <v>0</v>
+      </c>
+      <c r="L24" s="58"/>
+      <c r="M24" s="53">
+        <v>0</v>
+      </c>
+      <c r="N24" s="58"/>
+    </row>
+    <row r="25" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B25" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="51">
+        <f>SUM(G16:H24)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="48"/>
+      <c r="I25" s="51">
+        <f>SUM(I16:J24)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="48"/>
+      <c r="K25" s="51">
+        <f>SUM(K16:L24)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="48"/>
+      <c r="M25" s="51">
+        <f>SUM(M16:N24)</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="52"/>
+    </row>
+    <row r="26" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B26" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="65"/>
+      <c r="D26" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="63"/>
+      <c r="G26" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="63"/>
+      <c r="I26" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="67"/>
-      <c r="G15" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="67"/>
-      <c r="I15" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="67"/>
-      <c r="K15" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="L15" s="67"/>
-    </row>
-    <row r="16" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-    </row>
-    <row r="17" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-    </row>
-    <row r="18" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-    </row>
-    <row r="19" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-    </row>
-    <row r="20" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-    </row>
-    <row r="21" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-    </row>
-    <row r="22" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-    </row>
-    <row r="23" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-    </row>
-    <row r="24" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-    </row>
-    <row r="25" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-    </row>
-    <row r="26" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-    </row>
-    <row r="27" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="L26" s="63"/>
+      <c r="M26" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="N26" s="63"/>
+    </row>
+    <row r="27" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B27" s="54"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B28" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="65"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B29" s="27"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="19"/>
-    </row>
-    <row r="30" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="28"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="20"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="56">
+        <v>0</v>
+      </c>
+      <c r="H27" s="57"/>
+      <c r="I27" s="56">
+        <v>0</v>
+      </c>
+      <c r="J27" s="57"/>
+      <c r="K27" s="53">
+        <v>0</v>
+      </c>
+      <c r="L27" s="52"/>
+      <c r="M27" s="53">
+        <v>0</v>
+      </c>
+      <c r="N27" s="52"/>
+    </row>
+    <row r="28" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="56">
+        <v>0</v>
+      </c>
+      <c r="H28" s="57"/>
+      <c r="I28" s="56">
+        <v>0</v>
+      </c>
+      <c r="J28" s="57"/>
+      <c r="K28" s="53">
+        <v>0</v>
+      </c>
+      <c r="L28" s="52"/>
+      <c r="M28" s="53">
+        <v>0</v>
+      </c>
+      <c r="N28" s="52"/>
+    </row>
+    <row r="29" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="56">
+        <v>0</v>
+      </c>
+      <c r="H29" s="57"/>
+      <c r="I29" s="56">
+        <v>0</v>
+      </c>
+      <c r="J29" s="57"/>
+      <c r="K29" s="53">
+        <v>0</v>
+      </c>
+      <c r="L29" s="52"/>
+      <c r="M29" s="53">
+        <v>0</v>
+      </c>
+      <c r="N29" s="52"/>
+    </row>
+    <row r="30" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B30" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="51">
+        <f>SUM(G27:H29)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="48"/>
+      <c r="I30" s="51">
+        <f>SUM(I27:J29)</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="48"/>
+      <c r="K30" s="51">
+        <f>SUM(K27:L29)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="48"/>
+      <c r="M30" s="51">
+        <f>SUM(M27:N29)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="52"/>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="47"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="50">
+        <f>SUM(G30,G25)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="49"/>
+      <c r="I31" s="50">
+        <f>SUM(I30,I25)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="49"/>
+      <c r="K31" s="50">
+        <f>SUM(K30,K25)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="49"/>
+      <c r="M31" s="50">
+        <f>SUM(M30,M25)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="64"/>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32" s="27"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="19"/>
+    </row>
+    <row r="33" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B33" s="28"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="K28:L28"/>
+  <mergeCells count="111">
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="M13:N14"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="G6:N6"/>
+    <mergeCell ref="G7:N7"/>
+    <mergeCell ref="G8:N8"/>
+    <mergeCell ref="B13:D14"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="G13:J14"/>
+    <mergeCell ref="K13:L14"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="E15:F15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="M19:N19"/>
     <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="K13:L14"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="B13:D14"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="G13:J14"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="M31:N31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.37" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1471,37 +2003,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E2" sqref="A2:XFD69"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="25.875" style="11" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.75" style="11" customWidth="1"/>
+    <col min="2" max="2" width="30.75" style="11" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="20.75" style="12" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="26.125" style="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="11" customWidth="1"/>
-    <col min="7" max="7" width="12" style="12" customWidth="1"/>
-    <col min="8" max="8" width="9" style="12"/>
-    <col min="9" max="10" width="14.5" style="12" customWidth="1"/>
-    <col min="11" max="11" width="23.125" style="29" customWidth="1"/>
-    <col min="12" max="12" width="19.625" style="29" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.625" style="29" customWidth="1"/>
-    <col min="14" max="14" width="14" style="12" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14" style="12" customWidth="1"/>
-    <col min="16" max="16" width="17.75" style="12" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="17.75" style="12" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="11" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5" style="11" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12" style="12" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9" style="12" collapsed="1"/>
+    <col min="9" max="10" width="14.5" style="12" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.125" style="29" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="19.625" style="29" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="14" style="12" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="17.75" style="12" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="13.75" style="12" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="14.5" style="12" customWidth="1" collapsed="1"/>
-    <col min="20" max="16384" width="9" style="12"/>
+    <col min="20" max="16384" width="9" style="12" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" s="13" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
@@ -1509,16 +2038,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>3</v>
@@ -1527,31 +2056,31 @@
         <v>4</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="R1" s="13" t="s">
         <v>5</v>
@@ -1559,6 +2088,825 @@
       <c r="S1" s="13" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:S1"/>
@@ -1566,4 +2914,1409 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11.125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="36" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="36" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="19.375" style="36" customWidth="1"/>
+    <col min="7" max="10" width="10.375" style="36" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="36" customWidth="1"/>
+    <col min="12" max="14" width="11.125" style="36" customWidth="1"/>
+    <col min="15" max="15" width="13.625" style="36" customWidth="1"/>
+    <col min="16" max="255" width="10" style="36"/>
+    <col min="256" max="256" width="11.125" style="36" customWidth="1"/>
+    <col min="257" max="257" width="10.125" style="36" customWidth="1"/>
+    <col min="258" max="258" width="17.75" style="36" customWidth="1"/>
+    <col min="259" max="259" width="15.375" style="36" customWidth="1"/>
+    <col min="260" max="260" width="16.125" style="36" customWidth="1"/>
+    <col min="261" max="261" width="19.375" style="36" customWidth="1"/>
+    <col min="262" max="263" width="9.75" style="36" customWidth="1"/>
+    <col min="264" max="264" width="8.25" style="36" customWidth="1"/>
+    <col min="265" max="266" width="8.375" style="36" customWidth="1"/>
+    <col min="267" max="267" width="10.5" style="36" customWidth="1"/>
+    <col min="268" max="270" width="11.125" style="36" customWidth="1"/>
+    <col min="271" max="271" width="13.625" style="36" customWidth="1"/>
+    <col min="272" max="511" width="10" style="36"/>
+    <col min="512" max="512" width="11.125" style="36" customWidth="1"/>
+    <col min="513" max="513" width="10.125" style="36" customWidth="1"/>
+    <col min="514" max="514" width="17.75" style="36" customWidth="1"/>
+    <col min="515" max="515" width="15.375" style="36" customWidth="1"/>
+    <col min="516" max="516" width="16.125" style="36" customWidth="1"/>
+    <col min="517" max="517" width="19.375" style="36" customWidth="1"/>
+    <col min="518" max="519" width="9.75" style="36" customWidth="1"/>
+    <col min="520" max="520" width="8.25" style="36" customWidth="1"/>
+    <col min="521" max="522" width="8.375" style="36" customWidth="1"/>
+    <col min="523" max="523" width="10.5" style="36" customWidth="1"/>
+    <col min="524" max="526" width="11.125" style="36" customWidth="1"/>
+    <col min="527" max="527" width="13.625" style="36" customWidth="1"/>
+    <col min="528" max="767" width="10" style="36"/>
+    <col min="768" max="768" width="11.125" style="36" customWidth="1"/>
+    <col min="769" max="769" width="10.125" style="36" customWidth="1"/>
+    <col min="770" max="770" width="17.75" style="36" customWidth="1"/>
+    <col min="771" max="771" width="15.375" style="36" customWidth="1"/>
+    <col min="772" max="772" width="16.125" style="36" customWidth="1"/>
+    <col min="773" max="773" width="19.375" style="36" customWidth="1"/>
+    <col min="774" max="775" width="9.75" style="36" customWidth="1"/>
+    <col min="776" max="776" width="8.25" style="36" customWidth="1"/>
+    <col min="777" max="778" width="8.375" style="36" customWidth="1"/>
+    <col min="779" max="779" width="10.5" style="36" customWidth="1"/>
+    <col min="780" max="782" width="11.125" style="36" customWidth="1"/>
+    <col min="783" max="783" width="13.625" style="36" customWidth="1"/>
+    <col min="784" max="1023" width="10" style="36"/>
+    <col min="1024" max="1024" width="11.125" style="36" customWidth="1"/>
+    <col min="1025" max="1025" width="10.125" style="36" customWidth="1"/>
+    <col min="1026" max="1026" width="17.75" style="36" customWidth="1"/>
+    <col min="1027" max="1027" width="15.375" style="36" customWidth="1"/>
+    <col min="1028" max="1028" width="16.125" style="36" customWidth="1"/>
+    <col min="1029" max="1029" width="19.375" style="36" customWidth="1"/>
+    <col min="1030" max="1031" width="9.75" style="36" customWidth="1"/>
+    <col min="1032" max="1032" width="8.25" style="36" customWidth="1"/>
+    <col min="1033" max="1034" width="8.375" style="36" customWidth="1"/>
+    <col min="1035" max="1035" width="10.5" style="36" customWidth="1"/>
+    <col min="1036" max="1038" width="11.125" style="36" customWidth="1"/>
+    <col min="1039" max="1039" width="13.625" style="36" customWidth="1"/>
+    <col min="1040" max="1279" width="10" style="36"/>
+    <col min="1280" max="1280" width="11.125" style="36" customWidth="1"/>
+    <col min="1281" max="1281" width="10.125" style="36" customWidth="1"/>
+    <col min="1282" max="1282" width="17.75" style="36" customWidth="1"/>
+    <col min="1283" max="1283" width="15.375" style="36" customWidth="1"/>
+    <col min="1284" max="1284" width="16.125" style="36" customWidth="1"/>
+    <col min="1285" max="1285" width="19.375" style="36" customWidth="1"/>
+    <col min="1286" max="1287" width="9.75" style="36" customWidth="1"/>
+    <col min="1288" max="1288" width="8.25" style="36" customWidth="1"/>
+    <col min="1289" max="1290" width="8.375" style="36" customWidth="1"/>
+    <col min="1291" max="1291" width="10.5" style="36" customWidth="1"/>
+    <col min="1292" max="1294" width="11.125" style="36" customWidth="1"/>
+    <col min="1295" max="1295" width="13.625" style="36" customWidth="1"/>
+    <col min="1296" max="1535" width="10" style="36"/>
+    <col min="1536" max="1536" width="11.125" style="36" customWidth="1"/>
+    <col min="1537" max="1537" width="10.125" style="36" customWidth="1"/>
+    <col min="1538" max="1538" width="17.75" style="36" customWidth="1"/>
+    <col min="1539" max="1539" width="15.375" style="36" customWidth="1"/>
+    <col min="1540" max="1540" width="16.125" style="36" customWidth="1"/>
+    <col min="1541" max="1541" width="19.375" style="36" customWidth="1"/>
+    <col min="1542" max="1543" width="9.75" style="36" customWidth="1"/>
+    <col min="1544" max="1544" width="8.25" style="36" customWidth="1"/>
+    <col min="1545" max="1546" width="8.375" style="36" customWidth="1"/>
+    <col min="1547" max="1547" width="10.5" style="36" customWidth="1"/>
+    <col min="1548" max="1550" width="11.125" style="36" customWidth="1"/>
+    <col min="1551" max="1551" width="13.625" style="36" customWidth="1"/>
+    <col min="1552" max="1791" width="10" style="36"/>
+    <col min="1792" max="1792" width="11.125" style="36" customWidth="1"/>
+    <col min="1793" max="1793" width="10.125" style="36" customWidth="1"/>
+    <col min="1794" max="1794" width="17.75" style="36" customWidth="1"/>
+    <col min="1795" max="1795" width="15.375" style="36" customWidth="1"/>
+    <col min="1796" max="1796" width="16.125" style="36" customWidth="1"/>
+    <col min="1797" max="1797" width="19.375" style="36" customWidth="1"/>
+    <col min="1798" max="1799" width="9.75" style="36" customWidth="1"/>
+    <col min="1800" max="1800" width="8.25" style="36" customWidth="1"/>
+    <col min="1801" max="1802" width="8.375" style="36" customWidth="1"/>
+    <col min="1803" max="1803" width="10.5" style="36" customWidth="1"/>
+    <col min="1804" max="1806" width="11.125" style="36" customWidth="1"/>
+    <col min="1807" max="1807" width="13.625" style="36" customWidth="1"/>
+    <col min="1808" max="2047" width="10" style="36"/>
+    <col min="2048" max="2048" width="11.125" style="36" customWidth="1"/>
+    <col min="2049" max="2049" width="10.125" style="36" customWidth="1"/>
+    <col min="2050" max="2050" width="17.75" style="36" customWidth="1"/>
+    <col min="2051" max="2051" width="15.375" style="36" customWidth="1"/>
+    <col min="2052" max="2052" width="16.125" style="36" customWidth="1"/>
+    <col min="2053" max="2053" width="19.375" style="36" customWidth="1"/>
+    <col min="2054" max="2055" width="9.75" style="36" customWidth="1"/>
+    <col min="2056" max="2056" width="8.25" style="36" customWidth="1"/>
+    <col min="2057" max="2058" width="8.375" style="36" customWidth="1"/>
+    <col min="2059" max="2059" width="10.5" style="36" customWidth="1"/>
+    <col min="2060" max="2062" width="11.125" style="36" customWidth="1"/>
+    <col min="2063" max="2063" width="13.625" style="36" customWidth="1"/>
+    <col min="2064" max="2303" width="10" style="36"/>
+    <col min="2304" max="2304" width="11.125" style="36" customWidth="1"/>
+    <col min="2305" max="2305" width="10.125" style="36" customWidth="1"/>
+    <col min="2306" max="2306" width="17.75" style="36" customWidth="1"/>
+    <col min="2307" max="2307" width="15.375" style="36" customWidth="1"/>
+    <col min="2308" max="2308" width="16.125" style="36" customWidth="1"/>
+    <col min="2309" max="2309" width="19.375" style="36" customWidth="1"/>
+    <col min="2310" max="2311" width="9.75" style="36" customWidth="1"/>
+    <col min="2312" max="2312" width="8.25" style="36" customWidth="1"/>
+    <col min="2313" max="2314" width="8.375" style="36" customWidth="1"/>
+    <col min="2315" max="2315" width="10.5" style="36" customWidth="1"/>
+    <col min="2316" max="2318" width="11.125" style="36" customWidth="1"/>
+    <col min="2319" max="2319" width="13.625" style="36" customWidth="1"/>
+    <col min="2320" max="2559" width="10" style="36"/>
+    <col min="2560" max="2560" width="11.125" style="36" customWidth="1"/>
+    <col min="2561" max="2561" width="10.125" style="36" customWidth="1"/>
+    <col min="2562" max="2562" width="17.75" style="36" customWidth="1"/>
+    <col min="2563" max="2563" width="15.375" style="36" customWidth="1"/>
+    <col min="2564" max="2564" width="16.125" style="36" customWidth="1"/>
+    <col min="2565" max="2565" width="19.375" style="36" customWidth="1"/>
+    <col min="2566" max="2567" width="9.75" style="36" customWidth="1"/>
+    <col min="2568" max="2568" width="8.25" style="36" customWidth="1"/>
+    <col min="2569" max="2570" width="8.375" style="36" customWidth="1"/>
+    <col min="2571" max="2571" width="10.5" style="36" customWidth="1"/>
+    <col min="2572" max="2574" width="11.125" style="36" customWidth="1"/>
+    <col min="2575" max="2575" width="13.625" style="36" customWidth="1"/>
+    <col min="2576" max="2815" width="10" style="36"/>
+    <col min="2816" max="2816" width="11.125" style="36" customWidth="1"/>
+    <col min="2817" max="2817" width="10.125" style="36" customWidth="1"/>
+    <col min="2818" max="2818" width="17.75" style="36" customWidth="1"/>
+    <col min="2819" max="2819" width="15.375" style="36" customWidth="1"/>
+    <col min="2820" max="2820" width="16.125" style="36" customWidth="1"/>
+    <col min="2821" max="2821" width="19.375" style="36" customWidth="1"/>
+    <col min="2822" max="2823" width="9.75" style="36" customWidth="1"/>
+    <col min="2824" max="2824" width="8.25" style="36" customWidth="1"/>
+    <col min="2825" max="2826" width="8.375" style="36" customWidth="1"/>
+    <col min="2827" max="2827" width="10.5" style="36" customWidth="1"/>
+    <col min="2828" max="2830" width="11.125" style="36" customWidth="1"/>
+    <col min="2831" max="2831" width="13.625" style="36" customWidth="1"/>
+    <col min="2832" max="3071" width="10" style="36"/>
+    <col min="3072" max="3072" width="11.125" style="36" customWidth="1"/>
+    <col min="3073" max="3073" width="10.125" style="36" customWidth="1"/>
+    <col min="3074" max="3074" width="17.75" style="36" customWidth="1"/>
+    <col min="3075" max="3075" width="15.375" style="36" customWidth="1"/>
+    <col min="3076" max="3076" width="16.125" style="36" customWidth="1"/>
+    <col min="3077" max="3077" width="19.375" style="36" customWidth="1"/>
+    <col min="3078" max="3079" width="9.75" style="36" customWidth="1"/>
+    <col min="3080" max="3080" width="8.25" style="36" customWidth="1"/>
+    <col min="3081" max="3082" width="8.375" style="36" customWidth="1"/>
+    <col min="3083" max="3083" width="10.5" style="36" customWidth="1"/>
+    <col min="3084" max="3086" width="11.125" style="36" customWidth="1"/>
+    <col min="3087" max="3087" width="13.625" style="36" customWidth="1"/>
+    <col min="3088" max="3327" width="10" style="36"/>
+    <col min="3328" max="3328" width="11.125" style="36" customWidth="1"/>
+    <col min="3329" max="3329" width="10.125" style="36" customWidth="1"/>
+    <col min="3330" max="3330" width="17.75" style="36" customWidth="1"/>
+    <col min="3331" max="3331" width="15.375" style="36" customWidth="1"/>
+    <col min="3332" max="3332" width="16.125" style="36" customWidth="1"/>
+    <col min="3333" max="3333" width="19.375" style="36" customWidth="1"/>
+    <col min="3334" max="3335" width="9.75" style="36" customWidth="1"/>
+    <col min="3336" max="3336" width="8.25" style="36" customWidth="1"/>
+    <col min="3337" max="3338" width="8.375" style="36" customWidth="1"/>
+    <col min="3339" max="3339" width="10.5" style="36" customWidth="1"/>
+    <col min="3340" max="3342" width="11.125" style="36" customWidth="1"/>
+    <col min="3343" max="3343" width="13.625" style="36" customWidth="1"/>
+    <col min="3344" max="3583" width="10" style="36"/>
+    <col min="3584" max="3584" width="11.125" style="36" customWidth="1"/>
+    <col min="3585" max="3585" width="10.125" style="36" customWidth="1"/>
+    <col min="3586" max="3586" width="17.75" style="36" customWidth="1"/>
+    <col min="3587" max="3587" width="15.375" style="36" customWidth="1"/>
+    <col min="3588" max="3588" width="16.125" style="36" customWidth="1"/>
+    <col min="3589" max="3589" width="19.375" style="36" customWidth="1"/>
+    <col min="3590" max="3591" width="9.75" style="36" customWidth="1"/>
+    <col min="3592" max="3592" width="8.25" style="36" customWidth="1"/>
+    <col min="3593" max="3594" width="8.375" style="36" customWidth="1"/>
+    <col min="3595" max="3595" width="10.5" style="36" customWidth="1"/>
+    <col min="3596" max="3598" width="11.125" style="36" customWidth="1"/>
+    <col min="3599" max="3599" width="13.625" style="36" customWidth="1"/>
+    <col min="3600" max="3839" width="10" style="36"/>
+    <col min="3840" max="3840" width="11.125" style="36" customWidth="1"/>
+    <col min="3841" max="3841" width="10.125" style="36" customWidth="1"/>
+    <col min="3842" max="3842" width="17.75" style="36" customWidth="1"/>
+    <col min="3843" max="3843" width="15.375" style="36" customWidth="1"/>
+    <col min="3844" max="3844" width="16.125" style="36" customWidth="1"/>
+    <col min="3845" max="3845" width="19.375" style="36" customWidth="1"/>
+    <col min="3846" max="3847" width="9.75" style="36" customWidth="1"/>
+    <col min="3848" max="3848" width="8.25" style="36" customWidth="1"/>
+    <col min="3849" max="3850" width="8.375" style="36" customWidth="1"/>
+    <col min="3851" max="3851" width="10.5" style="36" customWidth="1"/>
+    <col min="3852" max="3854" width="11.125" style="36" customWidth="1"/>
+    <col min="3855" max="3855" width="13.625" style="36" customWidth="1"/>
+    <col min="3856" max="4095" width="10" style="36"/>
+    <col min="4096" max="4096" width="11.125" style="36" customWidth="1"/>
+    <col min="4097" max="4097" width="10.125" style="36" customWidth="1"/>
+    <col min="4098" max="4098" width="17.75" style="36" customWidth="1"/>
+    <col min="4099" max="4099" width="15.375" style="36" customWidth="1"/>
+    <col min="4100" max="4100" width="16.125" style="36" customWidth="1"/>
+    <col min="4101" max="4101" width="19.375" style="36" customWidth="1"/>
+    <col min="4102" max="4103" width="9.75" style="36" customWidth="1"/>
+    <col min="4104" max="4104" width="8.25" style="36" customWidth="1"/>
+    <col min="4105" max="4106" width="8.375" style="36" customWidth="1"/>
+    <col min="4107" max="4107" width="10.5" style="36" customWidth="1"/>
+    <col min="4108" max="4110" width="11.125" style="36" customWidth="1"/>
+    <col min="4111" max="4111" width="13.625" style="36" customWidth="1"/>
+    <col min="4112" max="4351" width="10" style="36"/>
+    <col min="4352" max="4352" width="11.125" style="36" customWidth="1"/>
+    <col min="4353" max="4353" width="10.125" style="36" customWidth="1"/>
+    <col min="4354" max="4354" width="17.75" style="36" customWidth="1"/>
+    <col min="4355" max="4355" width="15.375" style="36" customWidth="1"/>
+    <col min="4356" max="4356" width="16.125" style="36" customWidth="1"/>
+    <col min="4357" max="4357" width="19.375" style="36" customWidth="1"/>
+    <col min="4358" max="4359" width="9.75" style="36" customWidth="1"/>
+    <col min="4360" max="4360" width="8.25" style="36" customWidth="1"/>
+    <col min="4361" max="4362" width="8.375" style="36" customWidth="1"/>
+    <col min="4363" max="4363" width="10.5" style="36" customWidth="1"/>
+    <col min="4364" max="4366" width="11.125" style="36" customWidth="1"/>
+    <col min="4367" max="4367" width="13.625" style="36" customWidth="1"/>
+    <col min="4368" max="4607" width="10" style="36"/>
+    <col min="4608" max="4608" width="11.125" style="36" customWidth="1"/>
+    <col min="4609" max="4609" width="10.125" style="36" customWidth="1"/>
+    <col min="4610" max="4610" width="17.75" style="36" customWidth="1"/>
+    <col min="4611" max="4611" width="15.375" style="36" customWidth="1"/>
+    <col min="4612" max="4612" width="16.125" style="36" customWidth="1"/>
+    <col min="4613" max="4613" width="19.375" style="36" customWidth="1"/>
+    <col min="4614" max="4615" width="9.75" style="36" customWidth="1"/>
+    <col min="4616" max="4616" width="8.25" style="36" customWidth="1"/>
+    <col min="4617" max="4618" width="8.375" style="36" customWidth="1"/>
+    <col min="4619" max="4619" width="10.5" style="36" customWidth="1"/>
+    <col min="4620" max="4622" width="11.125" style="36" customWidth="1"/>
+    <col min="4623" max="4623" width="13.625" style="36" customWidth="1"/>
+    <col min="4624" max="4863" width="10" style="36"/>
+    <col min="4864" max="4864" width="11.125" style="36" customWidth="1"/>
+    <col min="4865" max="4865" width="10.125" style="36" customWidth="1"/>
+    <col min="4866" max="4866" width="17.75" style="36" customWidth="1"/>
+    <col min="4867" max="4867" width="15.375" style="36" customWidth="1"/>
+    <col min="4868" max="4868" width="16.125" style="36" customWidth="1"/>
+    <col min="4869" max="4869" width="19.375" style="36" customWidth="1"/>
+    <col min="4870" max="4871" width="9.75" style="36" customWidth="1"/>
+    <col min="4872" max="4872" width="8.25" style="36" customWidth="1"/>
+    <col min="4873" max="4874" width="8.375" style="36" customWidth="1"/>
+    <col min="4875" max="4875" width="10.5" style="36" customWidth="1"/>
+    <col min="4876" max="4878" width="11.125" style="36" customWidth="1"/>
+    <col min="4879" max="4879" width="13.625" style="36" customWidth="1"/>
+    <col min="4880" max="5119" width="10" style="36"/>
+    <col min="5120" max="5120" width="11.125" style="36" customWidth="1"/>
+    <col min="5121" max="5121" width="10.125" style="36" customWidth="1"/>
+    <col min="5122" max="5122" width="17.75" style="36" customWidth="1"/>
+    <col min="5123" max="5123" width="15.375" style="36" customWidth="1"/>
+    <col min="5124" max="5124" width="16.125" style="36" customWidth="1"/>
+    <col min="5125" max="5125" width="19.375" style="36" customWidth="1"/>
+    <col min="5126" max="5127" width="9.75" style="36" customWidth="1"/>
+    <col min="5128" max="5128" width="8.25" style="36" customWidth="1"/>
+    <col min="5129" max="5130" width="8.375" style="36" customWidth="1"/>
+    <col min="5131" max="5131" width="10.5" style="36" customWidth="1"/>
+    <col min="5132" max="5134" width="11.125" style="36" customWidth="1"/>
+    <col min="5135" max="5135" width="13.625" style="36" customWidth="1"/>
+    <col min="5136" max="5375" width="10" style="36"/>
+    <col min="5376" max="5376" width="11.125" style="36" customWidth="1"/>
+    <col min="5377" max="5377" width="10.125" style="36" customWidth="1"/>
+    <col min="5378" max="5378" width="17.75" style="36" customWidth="1"/>
+    <col min="5379" max="5379" width="15.375" style="36" customWidth="1"/>
+    <col min="5380" max="5380" width="16.125" style="36" customWidth="1"/>
+    <col min="5381" max="5381" width="19.375" style="36" customWidth="1"/>
+    <col min="5382" max="5383" width="9.75" style="36" customWidth="1"/>
+    <col min="5384" max="5384" width="8.25" style="36" customWidth="1"/>
+    <col min="5385" max="5386" width="8.375" style="36" customWidth="1"/>
+    <col min="5387" max="5387" width="10.5" style="36" customWidth="1"/>
+    <col min="5388" max="5390" width="11.125" style="36" customWidth="1"/>
+    <col min="5391" max="5391" width="13.625" style="36" customWidth="1"/>
+    <col min="5392" max="5631" width="10" style="36"/>
+    <col min="5632" max="5632" width="11.125" style="36" customWidth="1"/>
+    <col min="5633" max="5633" width="10.125" style="36" customWidth="1"/>
+    <col min="5634" max="5634" width="17.75" style="36" customWidth="1"/>
+    <col min="5635" max="5635" width="15.375" style="36" customWidth="1"/>
+    <col min="5636" max="5636" width="16.125" style="36" customWidth="1"/>
+    <col min="5637" max="5637" width="19.375" style="36" customWidth="1"/>
+    <col min="5638" max="5639" width="9.75" style="36" customWidth="1"/>
+    <col min="5640" max="5640" width="8.25" style="36" customWidth="1"/>
+    <col min="5641" max="5642" width="8.375" style="36" customWidth="1"/>
+    <col min="5643" max="5643" width="10.5" style="36" customWidth="1"/>
+    <col min="5644" max="5646" width="11.125" style="36" customWidth="1"/>
+    <col min="5647" max="5647" width="13.625" style="36" customWidth="1"/>
+    <col min="5648" max="5887" width="10" style="36"/>
+    <col min="5888" max="5888" width="11.125" style="36" customWidth="1"/>
+    <col min="5889" max="5889" width="10.125" style="36" customWidth="1"/>
+    <col min="5890" max="5890" width="17.75" style="36" customWidth="1"/>
+    <col min="5891" max="5891" width="15.375" style="36" customWidth="1"/>
+    <col min="5892" max="5892" width="16.125" style="36" customWidth="1"/>
+    <col min="5893" max="5893" width="19.375" style="36" customWidth="1"/>
+    <col min="5894" max="5895" width="9.75" style="36" customWidth="1"/>
+    <col min="5896" max="5896" width="8.25" style="36" customWidth="1"/>
+    <col min="5897" max="5898" width="8.375" style="36" customWidth="1"/>
+    <col min="5899" max="5899" width="10.5" style="36" customWidth="1"/>
+    <col min="5900" max="5902" width="11.125" style="36" customWidth="1"/>
+    <col min="5903" max="5903" width="13.625" style="36" customWidth="1"/>
+    <col min="5904" max="6143" width="10" style="36"/>
+    <col min="6144" max="6144" width="11.125" style="36" customWidth="1"/>
+    <col min="6145" max="6145" width="10.125" style="36" customWidth="1"/>
+    <col min="6146" max="6146" width="17.75" style="36" customWidth="1"/>
+    <col min="6147" max="6147" width="15.375" style="36" customWidth="1"/>
+    <col min="6148" max="6148" width="16.125" style="36" customWidth="1"/>
+    <col min="6149" max="6149" width="19.375" style="36" customWidth="1"/>
+    <col min="6150" max="6151" width="9.75" style="36" customWidth="1"/>
+    <col min="6152" max="6152" width="8.25" style="36" customWidth="1"/>
+    <col min="6153" max="6154" width="8.375" style="36" customWidth="1"/>
+    <col min="6155" max="6155" width="10.5" style="36" customWidth="1"/>
+    <col min="6156" max="6158" width="11.125" style="36" customWidth="1"/>
+    <col min="6159" max="6159" width="13.625" style="36" customWidth="1"/>
+    <col min="6160" max="6399" width="10" style="36"/>
+    <col min="6400" max="6400" width="11.125" style="36" customWidth="1"/>
+    <col min="6401" max="6401" width="10.125" style="36" customWidth="1"/>
+    <col min="6402" max="6402" width="17.75" style="36" customWidth="1"/>
+    <col min="6403" max="6403" width="15.375" style="36" customWidth="1"/>
+    <col min="6404" max="6404" width="16.125" style="36" customWidth="1"/>
+    <col min="6405" max="6405" width="19.375" style="36" customWidth="1"/>
+    <col min="6406" max="6407" width="9.75" style="36" customWidth="1"/>
+    <col min="6408" max="6408" width="8.25" style="36" customWidth="1"/>
+    <col min="6409" max="6410" width="8.375" style="36" customWidth="1"/>
+    <col min="6411" max="6411" width="10.5" style="36" customWidth="1"/>
+    <col min="6412" max="6414" width="11.125" style="36" customWidth="1"/>
+    <col min="6415" max="6415" width="13.625" style="36" customWidth="1"/>
+    <col min="6416" max="6655" width="10" style="36"/>
+    <col min="6656" max="6656" width="11.125" style="36" customWidth="1"/>
+    <col min="6657" max="6657" width="10.125" style="36" customWidth="1"/>
+    <col min="6658" max="6658" width="17.75" style="36" customWidth="1"/>
+    <col min="6659" max="6659" width="15.375" style="36" customWidth="1"/>
+    <col min="6660" max="6660" width="16.125" style="36" customWidth="1"/>
+    <col min="6661" max="6661" width="19.375" style="36" customWidth="1"/>
+    <col min="6662" max="6663" width="9.75" style="36" customWidth="1"/>
+    <col min="6664" max="6664" width="8.25" style="36" customWidth="1"/>
+    <col min="6665" max="6666" width="8.375" style="36" customWidth="1"/>
+    <col min="6667" max="6667" width="10.5" style="36" customWidth="1"/>
+    <col min="6668" max="6670" width="11.125" style="36" customWidth="1"/>
+    <col min="6671" max="6671" width="13.625" style="36" customWidth="1"/>
+    <col min="6672" max="6911" width="10" style="36"/>
+    <col min="6912" max="6912" width="11.125" style="36" customWidth="1"/>
+    <col min="6913" max="6913" width="10.125" style="36" customWidth="1"/>
+    <col min="6914" max="6914" width="17.75" style="36" customWidth="1"/>
+    <col min="6915" max="6915" width="15.375" style="36" customWidth="1"/>
+    <col min="6916" max="6916" width="16.125" style="36" customWidth="1"/>
+    <col min="6917" max="6917" width="19.375" style="36" customWidth="1"/>
+    <col min="6918" max="6919" width="9.75" style="36" customWidth="1"/>
+    <col min="6920" max="6920" width="8.25" style="36" customWidth="1"/>
+    <col min="6921" max="6922" width="8.375" style="36" customWidth="1"/>
+    <col min="6923" max="6923" width="10.5" style="36" customWidth="1"/>
+    <col min="6924" max="6926" width="11.125" style="36" customWidth="1"/>
+    <col min="6927" max="6927" width="13.625" style="36" customWidth="1"/>
+    <col min="6928" max="7167" width="10" style="36"/>
+    <col min="7168" max="7168" width="11.125" style="36" customWidth="1"/>
+    <col min="7169" max="7169" width="10.125" style="36" customWidth="1"/>
+    <col min="7170" max="7170" width="17.75" style="36" customWidth="1"/>
+    <col min="7171" max="7171" width="15.375" style="36" customWidth="1"/>
+    <col min="7172" max="7172" width="16.125" style="36" customWidth="1"/>
+    <col min="7173" max="7173" width="19.375" style="36" customWidth="1"/>
+    <col min="7174" max="7175" width="9.75" style="36" customWidth="1"/>
+    <col min="7176" max="7176" width="8.25" style="36" customWidth="1"/>
+    <col min="7177" max="7178" width="8.375" style="36" customWidth="1"/>
+    <col min="7179" max="7179" width="10.5" style="36" customWidth="1"/>
+    <col min="7180" max="7182" width="11.125" style="36" customWidth="1"/>
+    <col min="7183" max="7183" width="13.625" style="36" customWidth="1"/>
+    <col min="7184" max="7423" width="10" style="36"/>
+    <col min="7424" max="7424" width="11.125" style="36" customWidth="1"/>
+    <col min="7425" max="7425" width="10.125" style="36" customWidth="1"/>
+    <col min="7426" max="7426" width="17.75" style="36" customWidth="1"/>
+    <col min="7427" max="7427" width="15.375" style="36" customWidth="1"/>
+    <col min="7428" max="7428" width="16.125" style="36" customWidth="1"/>
+    <col min="7429" max="7429" width="19.375" style="36" customWidth="1"/>
+    <col min="7430" max="7431" width="9.75" style="36" customWidth="1"/>
+    <col min="7432" max="7432" width="8.25" style="36" customWidth="1"/>
+    <col min="7433" max="7434" width="8.375" style="36" customWidth="1"/>
+    <col min="7435" max="7435" width="10.5" style="36" customWidth="1"/>
+    <col min="7436" max="7438" width="11.125" style="36" customWidth="1"/>
+    <col min="7439" max="7439" width="13.625" style="36" customWidth="1"/>
+    <col min="7440" max="7679" width="10" style="36"/>
+    <col min="7680" max="7680" width="11.125" style="36" customWidth="1"/>
+    <col min="7681" max="7681" width="10.125" style="36" customWidth="1"/>
+    <col min="7682" max="7682" width="17.75" style="36" customWidth="1"/>
+    <col min="7683" max="7683" width="15.375" style="36" customWidth="1"/>
+    <col min="7684" max="7684" width="16.125" style="36" customWidth="1"/>
+    <col min="7685" max="7685" width="19.375" style="36" customWidth="1"/>
+    <col min="7686" max="7687" width="9.75" style="36" customWidth="1"/>
+    <col min="7688" max="7688" width="8.25" style="36" customWidth="1"/>
+    <col min="7689" max="7690" width="8.375" style="36" customWidth="1"/>
+    <col min="7691" max="7691" width="10.5" style="36" customWidth="1"/>
+    <col min="7692" max="7694" width="11.125" style="36" customWidth="1"/>
+    <col min="7695" max="7695" width="13.625" style="36" customWidth="1"/>
+    <col min="7696" max="7935" width="10" style="36"/>
+    <col min="7936" max="7936" width="11.125" style="36" customWidth="1"/>
+    <col min="7937" max="7937" width="10.125" style="36" customWidth="1"/>
+    <col min="7938" max="7938" width="17.75" style="36" customWidth="1"/>
+    <col min="7939" max="7939" width="15.375" style="36" customWidth="1"/>
+    <col min="7940" max="7940" width="16.125" style="36" customWidth="1"/>
+    <col min="7941" max="7941" width="19.375" style="36" customWidth="1"/>
+    <col min="7942" max="7943" width="9.75" style="36" customWidth="1"/>
+    <col min="7944" max="7944" width="8.25" style="36" customWidth="1"/>
+    <col min="7945" max="7946" width="8.375" style="36" customWidth="1"/>
+    <col min="7947" max="7947" width="10.5" style="36" customWidth="1"/>
+    <col min="7948" max="7950" width="11.125" style="36" customWidth="1"/>
+    <col min="7951" max="7951" width="13.625" style="36" customWidth="1"/>
+    <col min="7952" max="8191" width="10" style="36"/>
+    <col min="8192" max="8192" width="11.125" style="36" customWidth="1"/>
+    <col min="8193" max="8193" width="10.125" style="36" customWidth="1"/>
+    <col min="8194" max="8194" width="17.75" style="36" customWidth="1"/>
+    <col min="8195" max="8195" width="15.375" style="36" customWidth="1"/>
+    <col min="8196" max="8196" width="16.125" style="36" customWidth="1"/>
+    <col min="8197" max="8197" width="19.375" style="36" customWidth="1"/>
+    <col min="8198" max="8199" width="9.75" style="36" customWidth="1"/>
+    <col min="8200" max="8200" width="8.25" style="36" customWidth="1"/>
+    <col min="8201" max="8202" width="8.375" style="36" customWidth="1"/>
+    <col min="8203" max="8203" width="10.5" style="36" customWidth="1"/>
+    <col min="8204" max="8206" width="11.125" style="36" customWidth="1"/>
+    <col min="8207" max="8207" width="13.625" style="36" customWidth="1"/>
+    <col min="8208" max="8447" width="10" style="36"/>
+    <col min="8448" max="8448" width="11.125" style="36" customWidth="1"/>
+    <col min="8449" max="8449" width="10.125" style="36" customWidth="1"/>
+    <col min="8450" max="8450" width="17.75" style="36" customWidth="1"/>
+    <col min="8451" max="8451" width="15.375" style="36" customWidth="1"/>
+    <col min="8452" max="8452" width="16.125" style="36" customWidth="1"/>
+    <col min="8453" max="8453" width="19.375" style="36" customWidth="1"/>
+    <col min="8454" max="8455" width="9.75" style="36" customWidth="1"/>
+    <col min="8456" max="8456" width="8.25" style="36" customWidth="1"/>
+    <col min="8457" max="8458" width="8.375" style="36" customWidth="1"/>
+    <col min="8459" max="8459" width="10.5" style="36" customWidth="1"/>
+    <col min="8460" max="8462" width="11.125" style="36" customWidth="1"/>
+    <col min="8463" max="8463" width="13.625" style="36" customWidth="1"/>
+    <col min="8464" max="8703" width="10" style="36"/>
+    <col min="8704" max="8704" width="11.125" style="36" customWidth="1"/>
+    <col min="8705" max="8705" width="10.125" style="36" customWidth="1"/>
+    <col min="8706" max="8706" width="17.75" style="36" customWidth="1"/>
+    <col min="8707" max="8707" width="15.375" style="36" customWidth="1"/>
+    <col min="8708" max="8708" width="16.125" style="36" customWidth="1"/>
+    <col min="8709" max="8709" width="19.375" style="36" customWidth="1"/>
+    <col min="8710" max="8711" width="9.75" style="36" customWidth="1"/>
+    <col min="8712" max="8712" width="8.25" style="36" customWidth="1"/>
+    <col min="8713" max="8714" width="8.375" style="36" customWidth="1"/>
+    <col min="8715" max="8715" width="10.5" style="36" customWidth="1"/>
+    <col min="8716" max="8718" width="11.125" style="36" customWidth="1"/>
+    <col min="8719" max="8719" width="13.625" style="36" customWidth="1"/>
+    <col min="8720" max="8959" width="10" style="36"/>
+    <col min="8960" max="8960" width="11.125" style="36" customWidth="1"/>
+    <col min="8961" max="8961" width="10.125" style="36" customWidth="1"/>
+    <col min="8962" max="8962" width="17.75" style="36" customWidth="1"/>
+    <col min="8963" max="8963" width="15.375" style="36" customWidth="1"/>
+    <col min="8964" max="8964" width="16.125" style="36" customWidth="1"/>
+    <col min="8965" max="8965" width="19.375" style="36" customWidth="1"/>
+    <col min="8966" max="8967" width="9.75" style="36" customWidth="1"/>
+    <col min="8968" max="8968" width="8.25" style="36" customWidth="1"/>
+    <col min="8969" max="8970" width="8.375" style="36" customWidth="1"/>
+    <col min="8971" max="8971" width="10.5" style="36" customWidth="1"/>
+    <col min="8972" max="8974" width="11.125" style="36" customWidth="1"/>
+    <col min="8975" max="8975" width="13.625" style="36" customWidth="1"/>
+    <col min="8976" max="9215" width="10" style="36"/>
+    <col min="9216" max="9216" width="11.125" style="36" customWidth="1"/>
+    <col min="9217" max="9217" width="10.125" style="36" customWidth="1"/>
+    <col min="9218" max="9218" width="17.75" style="36" customWidth="1"/>
+    <col min="9219" max="9219" width="15.375" style="36" customWidth="1"/>
+    <col min="9220" max="9220" width="16.125" style="36" customWidth="1"/>
+    <col min="9221" max="9221" width="19.375" style="36" customWidth="1"/>
+    <col min="9222" max="9223" width="9.75" style="36" customWidth="1"/>
+    <col min="9224" max="9224" width="8.25" style="36" customWidth="1"/>
+    <col min="9225" max="9226" width="8.375" style="36" customWidth="1"/>
+    <col min="9227" max="9227" width="10.5" style="36" customWidth="1"/>
+    <col min="9228" max="9230" width="11.125" style="36" customWidth="1"/>
+    <col min="9231" max="9231" width="13.625" style="36" customWidth="1"/>
+    <col min="9232" max="9471" width="10" style="36"/>
+    <col min="9472" max="9472" width="11.125" style="36" customWidth="1"/>
+    <col min="9473" max="9473" width="10.125" style="36" customWidth="1"/>
+    <col min="9474" max="9474" width="17.75" style="36" customWidth="1"/>
+    <col min="9475" max="9475" width="15.375" style="36" customWidth="1"/>
+    <col min="9476" max="9476" width="16.125" style="36" customWidth="1"/>
+    <col min="9477" max="9477" width="19.375" style="36" customWidth="1"/>
+    <col min="9478" max="9479" width="9.75" style="36" customWidth="1"/>
+    <col min="9480" max="9480" width="8.25" style="36" customWidth="1"/>
+    <col min="9481" max="9482" width="8.375" style="36" customWidth="1"/>
+    <col min="9483" max="9483" width="10.5" style="36" customWidth="1"/>
+    <col min="9484" max="9486" width="11.125" style="36" customWidth="1"/>
+    <col min="9487" max="9487" width="13.625" style="36" customWidth="1"/>
+    <col min="9488" max="9727" width="10" style="36"/>
+    <col min="9728" max="9728" width="11.125" style="36" customWidth="1"/>
+    <col min="9729" max="9729" width="10.125" style="36" customWidth="1"/>
+    <col min="9730" max="9730" width="17.75" style="36" customWidth="1"/>
+    <col min="9731" max="9731" width="15.375" style="36" customWidth="1"/>
+    <col min="9732" max="9732" width="16.125" style="36" customWidth="1"/>
+    <col min="9733" max="9733" width="19.375" style="36" customWidth="1"/>
+    <col min="9734" max="9735" width="9.75" style="36" customWidth="1"/>
+    <col min="9736" max="9736" width="8.25" style="36" customWidth="1"/>
+    <col min="9737" max="9738" width="8.375" style="36" customWidth="1"/>
+    <col min="9739" max="9739" width="10.5" style="36" customWidth="1"/>
+    <col min="9740" max="9742" width="11.125" style="36" customWidth="1"/>
+    <col min="9743" max="9743" width="13.625" style="36" customWidth="1"/>
+    <col min="9744" max="9983" width="10" style="36"/>
+    <col min="9984" max="9984" width="11.125" style="36" customWidth="1"/>
+    <col min="9985" max="9985" width="10.125" style="36" customWidth="1"/>
+    <col min="9986" max="9986" width="17.75" style="36" customWidth="1"/>
+    <col min="9987" max="9987" width="15.375" style="36" customWidth="1"/>
+    <col min="9988" max="9988" width="16.125" style="36" customWidth="1"/>
+    <col min="9989" max="9989" width="19.375" style="36" customWidth="1"/>
+    <col min="9990" max="9991" width="9.75" style="36" customWidth="1"/>
+    <col min="9992" max="9992" width="8.25" style="36" customWidth="1"/>
+    <col min="9993" max="9994" width="8.375" style="36" customWidth="1"/>
+    <col min="9995" max="9995" width="10.5" style="36" customWidth="1"/>
+    <col min="9996" max="9998" width="11.125" style="36" customWidth="1"/>
+    <col min="9999" max="9999" width="13.625" style="36" customWidth="1"/>
+    <col min="10000" max="10239" width="10" style="36"/>
+    <col min="10240" max="10240" width="11.125" style="36" customWidth="1"/>
+    <col min="10241" max="10241" width="10.125" style="36" customWidth="1"/>
+    <col min="10242" max="10242" width="17.75" style="36" customWidth="1"/>
+    <col min="10243" max="10243" width="15.375" style="36" customWidth="1"/>
+    <col min="10244" max="10244" width="16.125" style="36" customWidth="1"/>
+    <col min="10245" max="10245" width="19.375" style="36" customWidth="1"/>
+    <col min="10246" max="10247" width="9.75" style="36" customWidth="1"/>
+    <col min="10248" max="10248" width="8.25" style="36" customWidth="1"/>
+    <col min="10249" max="10250" width="8.375" style="36" customWidth="1"/>
+    <col min="10251" max="10251" width="10.5" style="36" customWidth="1"/>
+    <col min="10252" max="10254" width="11.125" style="36" customWidth="1"/>
+    <col min="10255" max="10255" width="13.625" style="36" customWidth="1"/>
+    <col min="10256" max="10495" width="10" style="36"/>
+    <col min="10496" max="10496" width="11.125" style="36" customWidth="1"/>
+    <col min="10497" max="10497" width="10.125" style="36" customWidth="1"/>
+    <col min="10498" max="10498" width="17.75" style="36" customWidth="1"/>
+    <col min="10499" max="10499" width="15.375" style="36" customWidth="1"/>
+    <col min="10500" max="10500" width="16.125" style="36" customWidth="1"/>
+    <col min="10501" max="10501" width="19.375" style="36" customWidth="1"/>
+    <col min="10502" max="10503" width="9.75" style="36" customWidth="1"/>
+    <col min="10504" max="10504" width="8.25" style="36" customWidth="1"/>
+    <col min="10505" max="10506" width="8.375" style="36" customWidth="1"/>
+    <col min="10507" max="10507" width="10.5" style="36" customWidth="1"/>
+    <col min="10508" max="10510" width="11.125" style="36" customWidth="1"/>
+    <col min="10511" max="10511" width="13.625" style="36" customWidth="1"/>
+    <col min="10512" max="10751" width="10" style="36"/>
+    <col min="10752" max="10752" width="11.125" style="36" customWidth="1"/>
+    <col min="10753" max="10753" width="10.125" style="36" customWidth="1"/>
+    <col min="10754" max="10754" width="17.75" style="36" customWidth="1"/>
+    <col min="10755" max="10755" width="15.375" style="36" customWidth="1"/>
+    <col min="10756" max="10756" width="16.125" style="36" customWidth="1"/>
+    <col min="10757" max="10757" width="19.375" style="36" customWidth="1"/>
+    <col min="10758" max="10759" width="9.75" style="36" customWidth="1"/>
+    <col min="10760" max="10760" width="8.25" style="36" customWidth="1"/>
+    <col min="10761" max="10762" width="8.375" style="36" customWidth="1"/>
+    <col min="10763" max="10763" width="10.5" style="36" customWidth="1"/>
+    <col min="10764" max="10766" width="11.125" style="36" customWidth="1"/>
+    <col min="10767" max="10767" width="13.625" style="36" customWidth="1"/>
+    <col min="10768" max="11007" width="10" style="36"/>
+    <col min="11008" max="11008" width="11.125" style="36" customWidth="1"/>
+    <col min="11009" max="11009" width="10.125" style="36" customWidth="1"/>
+    <col min="11010" max="11010" width="17.75" style="36" customWidth="1"/>
+    <col min="11011" max="11011" width="15.375" style="36" customWidth="1"/>
+    <col min="11012" max="11012" width="16.125" style="36" customWidth="1"/>
+    <col min="11013" max="11013" width="19.375" style="36" customWidth="1"/>
+    <col min="11014" max="11015" width="9.75" style="36" customWidth="1"/>
+    <col min="11016" max="11016" width="8.25" style="36" customWidth="1"/>
+    <col min="11017" max="11018" width="8.375" style="36" customWidth="1"/>
+    <col min="11019" max="11019" width="10.5" style="36" customWidth="1"/>
+    <col min="11020" max="11022" width="11.125" style="36" customWidth="1"/>
+    <col min="11023" max="11023" width="13.625" style="36" customWidth="1"/>
+    <col min="11024" max="11263" width="10" style="36"/>
+    <col min="11264" max="11264" width="11.125" style="36" customWidth="1"/>
+    <col min="11265" max="11265" width="10.125" style="36" customWidth="1"/>
+    <col min="11266" max="11266" width="17.75" style="36" customWidth="1"/>
+    <col min="11267" max="11267" width="15.375" style="36" customWidth="1"/>
+    <col min="11268" max="11268" width="16.125" style="36" customWidth="1"/>
+    <col min="11269" max="11269" width="19.375" style="36" customWidth="1"/>
+    <col min="11270" max="11271" width="9.75" style="36" customWidth="1"/>
+    <col min="11272" max="11272" width="8.25" style="36" customWidth="1"/>
+    <col min="11273" max="11274" width="8.375" style="36" customWidth="1"/>
+    <col min="11275" max="11275" width="10.5" style="36" customWidth="1"/>
+    <col min="11276" max="11278" width="11.125" style="36" customWidth="1"/>
+    <col min="11279" max="11279" width="13.625" style="36" customWidth="1"/>
+    <col min="11280" max="11519" width="10" style="36"/>
+    <col min="11520" max="11520" width="11.125" style="36" customWidth="1"/>
+    <col min="11521" max="11521" width="10.125" style="36" customWidth="1"/>
+    <col min="11522" max="11522" width="17.75" style="36" customWidth="1"/>
+    <col min="11523" max="11523" width="15.375" style="36" customWidth="1"/>
+    <col min="11524" max="11524" width="16.125" style="36" customWidth="1"/>
+    <col min="11525" max="11525" width="19.375" style="36" customWidth="1"/>
+    <col min="11526" max="11527" width="9.75" style="36" customWidth="1"/>
+    <col min="11528" max="11528" width="8.25" style="36" customWidth="1"/>
+    <col min="11529" max="11530" width="8.375" style="36" customWidth="1"/>
+    <col min="11531" max="11531" width="10.5" style="36" customWidth="1"/>
+    <col min="11532" max="11534" width="11.125" style="36" customWidth="1"/>
+    <col min="11535" max="11535" width="13.625" style="36" customWidth="1"/>
+    <col min="11536" max="11775" width="10" style="36"/>
+    <col min="11776" max="11776" width="11.125" style="36" customWidth="1"/>
+    <col min="11777" max="11777" width="10.125" style="36" customWidth="1"/>
+    <col min="11778" max="11778" width="17.75" style="36" customWidth="1"/>
+    <col min="11779" max="11779" width="15.375" style="36" customWidth="1"/>
+    <col min="11780" max="11780" width="16.125" style="36" customWidth="1"/>
+    <col min="11781" max="11781" width="19.375" style="36" customWidth="1"/>
+    <col min="11782" max="11783" width="9.75" style="36" customWidth="1"/>
+    <col min="11784" max="11784" width="8.25" style="36" customWidth="1"/>
+    <col min="11785" max="11786" width="8.375" style="36" customWidth="1"/>
+    <col min="11787" max="11787" width="10.5" style="36" customWidth="1"/>
+    <col min="11788" max="11790" width="11.125" style="36" customWidth="1"/>
+    <col min="11791" max="11791" width="13.625" style="36" customWidth="1"/>
+    <col min="11792" max="12031" width="10" style="36"/>
+    <col min="12032" max="12032" width="11.125" style="36" customWidth="1"/>
+    <col min="12033" max="12033" width="10.125" style="36" customWidth="1"/>
+    <col min="12034" max="12034" width="17.75" style="36" customWidth="1"/>
+    <col min="12035" max="12035" width="15.375" style="36" customWidth="1"/>
+    <col min="12036" max="12036" width="16.125" style="36" customWidth="1"/>
+    <col min="12037" max="12037" width="19.375" style="36" customWidth="1"/>
+    <col min="12038" max="12039" width="9.75" style="36" customWidth="1"/>
+    <col min="12040" max="12040" width="8.25" style="36" customWidth="1"/>
+    <col min="12041" max="12042" width="8.375" style="36" customWidth="1"/>
+    <col min="12043" max="12043" width="10.5" style="36" customWidth="1"/>
+    <col min="12044" max="12046" width="11.125" style="36" customWidth="1"/>
+    <col min="12047" max="12047" width="13.625" style="36" customWidth="1"/>
+    <col min="12048" max="12287" width="10" style="36"/>
+    <col min="12288" max="12288" width="11.125" style="36" customWidth="1"/>
+    <col min="12289" max="12289" width="10.125" style="36" customWidth="1"/>
+    <col min="12290" max="12290" width="17.75" style="36" customWidth="1"/>
+    <col min="12291" max="12291" width="15.375" style="36" customWidth="1"/>
+    <col min="12292" max="12292" width="16.125" style="36" customWidth="1"/>
+    <col min="12293" max="12293" width="19.375" style="36" customWidth="1"/>
+    <col min="12294" max="12295" width="9.75" style="36" customWidth="1"/>
+    <col min="12296" max="12296" width="8.25" style="36" customWidth="1"/>
+    <col min="12297" max="12298" width="8.375" style="36" customWidth="1"/>
+    <col min="12299" max="12299" width="10.5" style="36" customWidth="1"/>
+    <col min="12300" max="12302" width="11.125" style="36" customWidth="1"/>
+    <col min="12303" max="12303" width="13.625" style="36" customWidth="1"/>
+    <col min="12304" max="12543" width="10" style="36"/>
+    <col min="12544" max="12544" width="11.125" style="36" customWidth="1"/>
+    <col min="12545" max="12545" width="10.125" style="36" customWidth="1"/>
+    <col min="12546" max="12546" width="17.75" style="36" customWidth="1"/>
+    <col min="12547" max="12547" width="15.375" style="36" customWidth="1"/>
+    <col min="12548" max="12548" width="16.125" style="36" customWidth="1"/>
+    <col min="12549" max="12549" width="19.375" style="36" customWidth="1"/>
+    <col min="12550" max="12551" width="9.75" style="36" customWidth="1"/>
+    <col min="12552" max="12552" width="8.25" style="36" customWidth="1"/>
+    <col min="12553" max="12554" width="8.375" style="36" customWidth="1"/>
+    <col min="12555" max="12555" width="10.5" style="36" customWidth="1"/>
+    <col min="12556" max="12558" width="11.125" style="36" customWidth="1"/>
+    <col min="12559" max="12559" width="13.625" style="36" customWidth="1"/>
+    <col min="12560" max="12799" width="10" style="36"/>
+    <col min="12800" max="12800" width="11.125" style="36" customWidth="1"/>
+    <col min="12801" max="12801" width="10.125" style="36" customWidth="1"/>
+    <col min="12802" max="12802" width="17.75" style="36" customWidth="1"/>
+    <col min="12803" max="12803" width="15.375" style="36" customWidth="1"/>
+    <col min="12804" max="12804" width="16.125" style="36" customWidth="1"/>
+    <col min="12805" max="12805" width="19.375" style="36" customWidth="1"/>
+    <col min="12806" max="12807" width="9.75" style="36" customWidth="1"/>
+    <col min="12808" max="12808" width="8.25" style="36" customWidth="1"/>
+    <col min="12809" max="12810" width="8.375" style="36" customWidth="1"/>
+    <col min="12811" max="12811" width="10.5" style="36" customWidth="1"/>
+    <col min="12812" max="12814" width="11.125" style="36" customWidth="1"/>
+    <col min="12815" max="12815" width="13.625" style="36" customWidth="1"/>
+    <col min="12816" max="13055" width="10" style="36"/>
+    <col min="13056" max="13056" width="11.125" style="36" customWidth="1"/>
+    <col min="13057" max="13057" width="10.125" style="36" customWidth="1"/>
+    <col min="13058" max="13058" width="17.75" style="36" customWidth="1"/>
+    <col min="13059" max="13059" width="15.375" style="36" customWidth="1"/>
+    <col min="13060" max="13060" width="16.125" style="36" customWidth="1"/>
+    <col min="13061" max="13061" width="19.375" style="36" customWidth="1"/>
+    <col min="13062" max="13063" width="9.75" style="36" customWidth="1"/>
+    <col min="13064" max="13064" width="8.25" style="36" customWidth="1"/>
+    <col min="13065" max="13066" width="8.375" style="36" customWidth="1"/>
+    <col min="13067" max="13067" width="10.5" style="36" customWidth="1"/>
+    <col min="13068" max="13070" width="11.125" style="36" customWidth="1"/>
+    <col min="13071" max="13071" width="13.625" style="36" customWidth="1"/>
+    <col min="13072" max="13311" width="10" style="36"/>
+    <col min="13312" max="13312" width="11.125" style="36" customWidth="1"/>
+    <col min="13313" max="13313" width="10.125" style="36" customWidth="1"/>
+    <col min="13314" max="13314" width="17.75" style="36" customWidth="1"/>
+    <col min="13315" max="13315" width="15.375" style="36" customWidth="1"/>
+    <col min="13316" max="13316" width="16.125" style="36" customWidth="1"/>
+    <col min="13317" max="13317" width="19.375" style="36" customWidth="1"/>
+    <col min="13318" max="13319" width="9.75" style="36" customWidth="1"/>
+    <col min="13320" max="13320" width="8.25" style="36" customWidth="1"/>
+    <col min="13321" max="13322" width="8.375" style="36" customWidth="1"/>
+    <col min="13323" max="13323" width="10.5" style="36" customWidth="1"/>
+    <col min="13324" max="13326" width="11.125" style="36" customWidth="1"/>
+    <col min="13327" max="13327" width="13.625" style="36" customWidth="1"/>
+    <col min="13328" max="13567" width="10" style="36"/>
+    <col min="13568" max="13568" width="11.125" style="36" customWidth="1"/>
+    <col min="13569" max="13569" width="10.125" style="36" customWidth="1"/>
+    <col min="13570" max="13570" width="17.75" style="36" customWidth="1"/>
+    <col min="13571" max="13571" width="15.375" style="36" customWidth="1"/>
+    <col min="13572" max="13572" width="16.125" style="36" customWidth="1"/>
+    <col min="13573" max="13573" width="19.375" style="36" customWidth="1"/>
+    <col min="13574" max="13575" width="9.75" style="36" customWidth="1"/>
+    <col min="13576" max="13576" width="8.25" style="36" customWidth="1"/>
+    <col min="13577" max="13578" width="8.375" style="36" customWidth="1"/>
+    <col min="13579" max="13579" width="10.5" style="36" customWidth="1"/>
+    <col min="13580" max="13582" width="11.125" style="36" customWidth="1"/>
+    <col min="13583" max="13583" width="13.625" style="36" customWidth="1"/>
+    <col min="13584" max="13823" width="10" style="36"/>
+    <col min="13824" max="13824" width="11.125" style="36" customWidth="1"/>
+    <col min="13825" max="13825" width="10.125" style="36" customWidth="1"/>
+    <col min="13826" max="13826" width="17.75" style="36" customWidth="1"/>
+    <col min="13827" max="13827" width="15.375" style="36" customWidth="1"/>
+    <col min="13828" max="13828" width="16.125" style="36" customWidth="1"/>
+    <col min="13829" max="13829" width="19.375" style="36" customWidth="1"/>
+    <col min="13830" max="13831" width="9.75" style="36" customWidth="1"/>
+    <col min="13832" max="13832" width="8.25" style="36" customWidth="1"/>
+    <col min="13833" max="13834" width="8.375" style="36" customWidth="1"/>
+    <col min="13835" max="13835" width="10.5" style="36" customWidth="1"/>
+    <col min="13836" max="13838" width="11.125" style="36" customWidth="1"/>
+    <col min="13839" max="13839" width="13.625" style="36" customWidth="1"/>
+    <col min="13840" max="14079" width="10" style="36"/>
+    <col min="14080" max="14080" width="11.125" style="36" customWidth="1"/>
+    <col min="14081" max="14081" width="10.125" style="36" customWidth="1"/>
+    <col min="14082" max="14082" width="17.75" style="36" customWidth="1"/>
+    <col min="14083" max="14083" width="15.375" style="36" customWidth="1"/>
+    <col min="14084" max="14084" width="16.125" style="36" customWidth="1"/>
+    <col min="14085" max="14085" width="19.375" style="36" customWidth="1"/>
+    <col min="14086" max="14087" width="9.75" style="36" customWidth="1"/>
+    <col min="14088" max="14088" width="8.25" style="36" customWidth="1"/>
+    <col min="14089" max="14090" width="8.375" style="36" customWidth="1"/>
+    <col min="14091" max="14091" width="10.5" style="36" customWidth="1"/>
+    <col min="14092" max="14094" width="11.125" style="36" customWidth="1"/>
+    <col min="14095" max="14095" width="13.625" style="36" customWidth="1"/>
+    <col min="14096" max="14335" width="10" style="36"/>
+    <col min="14336" max="14336" width="11.125" style="36" customWidth="1"/>
+    <col min="14337" max="14337" width="10.125" style="36" customWidth="1"/>
+    <col min="14338" max="14338" width="17.75" style="36" customWidth="1"/>
+    <col min="14339" max="14339" width="15.375" style="36" customWidth="1"/>
+    <col min="14340" max="14340" width="16.125" style="36" customWidth="1"/>
+    <col min="14341" max="14341" width="19.375" style="36" customWidth="1"/>
+    <col min="14342" max="14343" width="9.75" style="36" customWidth="1"/>
+    <col min="14344" max="14344" width="8.25" style="36" customWidth="1"/>
+    <col min="14345" max="14346" width="8.375" style="36" customWidth="1"/>
+    <col min="14347" max="14347" width="10.5" style="36" customWidth="1"/>
+    <col min="14348" max="14350" width="11.125" style="36" customWidth="1"/>
+    <col min="14351" max="14351" width="13.625" style="36" customWidth="1"/>
+    <col min="14352" max="14591" width="10" style="36"/>
+    <col min="14592" max="14592" width="11.125" style="36" customWidth="1"/>
+    <col min="14593" max="14593" width="10.125" style="36" customWidth="1"/>
+    <col min="14594" max="14594" width="17.75" style="36" customWidth="1"/>
+    <col min="14595" max="14595" width="15.375" style="36" customWidth="1"/>
+    <col min="14596" max="14596" width="16.125" style="36" customWidth="1"/>
+    <col min="14597" max="14597" width="19.375" style="36" customWidth="1"/>
+    <col min="14598" max="14599" width="9.75" style="36" customWidth="1"/>
+    <col min="14600" max="14600" width="8.25" style="36" customWidth="1"/>
+    <col min="14601" max="14602" width="8.375" style="36" customWidth="1"/>
+    <col min="14603" max="14603" width="10.5" style="36" customWidth="1"/>
+    <col min="14604" max="14606" width="11.125" style="36" customWidth="1"/>
+    <col min="14607" max="14607" width="13.625" style="36" customWidth="1"/>
+    <col min="14608" max="14847" width="10" style="36"/>
+    <col min="14848" max="14848" width="11.125" style="36" customWidth="1"/>
+    <col min="14849" max="14849" width="10.125" style="36" customWidth="1"/>
+    <col min="14850" max="14850" width="17.75" style="36" customWidth="1"/>
+    <col min="14851" max="14851" width="15.375" style="36" customWidth="1"/>
+    <col min="14852" max="14852" width="16.125" style="36" customWidth="1"/>
+    <col min="14853" max="14853" width="19.375" style="36" customWidth="1"/>
+    <col min="14854" max="14855" width="9.75" style="36" customWidth="1"/>
+    <col min="14856" max="14856" width="8.25" style="36" customWidth="1"/>
+    <col min="14857" max="14858" width="8.375" style="36" customWidth="1"/>
+    <col min="14859" max="14859" width="10.5" style="36" customWidth="1"/>
+    <col min="14860" max="14862" width="11.125" style="36" customWidth="1"/>
+    <col min="14863" max="14863" width="13.625" style="36" customWidth="1"/>
+    <col min="14864" max="15103" width="10" style="36"/>
+    <col min="15104" max="15104" width="11.125" style="36" customWidth="1"/>
+    <col min="15105" max="15105" width="10.125" style="36" customWidth="1"/>
+    <col min="15106" max="15106" width="17.75" style="36" customWidth="1"/>
+    <col min="15107" max="15107" width="15.375" style="36" customWidth="1"/>
+    <col min="15108" max="15108" width="16.125" style="36" customWidth="1"/>
+    <col min="15109" max="15109" width="19.375" style="36" customWidth="1"/>
+    <col min="15110" max="15111" width="9.75" style="36" customWidth="1"/>
+    <col min="15112" max="15112" width="8.25" style="36" customWidth="1"/>
+    <col min="15113" max="15114" width="8.375" style="36" customWidth="1"/>
+    <col min="15115" max="15115" width="10.5" style="36" customWidth="1"/>
+    <col min="15116" max="15118" width="11.125" style="36" customWidth="1"/>
+    <col min="15119" max="15119" width="13.625" style="36" customWidth="1"/>
+    <col min="15120" max="15359" width="10" style="36"/>
+    <col min="15360" max="15360" width="11.125" style="36" customWidth="1"/>
+    <col min="15361" max="15361" width="10.125" style="36" customWidth="1"/>
+    <col min="15362" max="15362" width="17.75" style="36" customWidth="1"/>
+    <col min="15363" max="15363" width="15.375" style="36" customWidth="1"/>
+    <col min="15364" max="15364" width="16.125" style="36" customWidth="1"/>
+    <col min="15365" max="15365" width="19.375" style="36" customWidth="1"/>
+    <col min="15366" max="15367" width="9.75" style="36" customWidth="1"/>
+    <col min="15368" max="15368" width="8.25" style="36" customWidth="1"/>
+    <col min="15369" max="15370" width="8.375" style="36" customWidth="1"/>
+    <col min="15371" max="15371" width="10.5" style="36" customWidth="1"/>
+    <col min="15372" max="15374" width="11.125" style="36" customWidth="1"/>
+    <col min="15375" max="15375" width="13.625" style="36" customWidth="1"/>
+    <col min="15376" max="15615" width="10" style="36"/>
+    <col min="15616" max="15616" width="11.125" style="36" customWidth="1"/>
+    <col min="15617" max="15617" width="10.125" style="36" customWidth="1"/>
+    <col min="15618" max="15618" width="17.75" style="36" customWidth="1"/>
+    <col min="15619" max="15619" width="15.375" style="36" customWidth="1"/>
+    <col min="15620" max="15620" width="16.125" style="36" customWidth="1"/>
+    <col min="15621" max="15621" width="19.375" style="36" customWidth="1"/>
+    <col min="15622" max="15623" width="9.75" style="36" customWidth="1"/>
+    <col min="15624" max="15624" width="8.25" style="36" customWidth="1"/>
+    <col min="15625" max="15626" width="8.375" style="36" customWidth="1"/>
+    <col min="15627" max="15627" width="10.5" style="36" customWidth="1"/>
+    <col min="15628" max="15630" width="11.125" style="36" customWidth="1"/>
+    <col min="15631" max="15631" width="13.625" style="36" customWidth="1"/>
+    <col min="15632" max="15871" width="10" style="36"/>
+    <col min="15872" max="15872" width="11.125" style="36" customWidth="1"/>
+    <col min="15873" max="15873" width="10.125" style="36" customWidth="1"/>
+    <col min="15874" max="15874" width="17.75" style="36" customWidth="1"/>
+    <col min="15875" max="15875" width="15.375" style="36" customWidth="1"/>
+    <col min="15876" max="15876" width="16.125" style="36" customWidth="1"/>
+    <col min="15877" max="15877" width="19.375" style="36" customWidth="1"/>
+    <col min="15878" max="15879" width="9.75" style="36" customWidth="1"/>
+    <col min="15880" max="15880" width="8.25" style="36" customWidth="1"/>
+    <col min="15881" max="15882" width="8.375" style="36" customWidth="1"/>
+    <col min="15883" max="15883" width="10.5" style="36" customWidth="1"/>
+    <col min="15884" max="15886" width="11.125" style="36" customWidth="1"/>
+    <col min="15887" max="15887" width="13.625" style="36" customWidth="1"/>
+    <col min="15888" max="16127" width="10" style="36"/>
+    <col min="16128" max="16128" width="11.125" style="36" customWidth="1"/>
+    <col min="16129" max="16129" width="10.125" style="36" customWidth="1"/>
+    <col min="16130" max="16130" width="17.75" style="36" customWidth="1"/>
+    <col min="16131" max="16131" width="15.375" style="36" customWidth="1"/>
+    <col min="16132" max="16132" width="16.125" style="36" customWidth="1"/>
+    <col min="16133" max="16133" width="19.375" style="36" customWidth="1"/>
+    <col min="16134" max="16135" width="9.75" style="36" customWidth="1"/>
+    <col min="16136" max="16136" width="8.25" style="36" customWidth="1"/>
+    <col min="16137" max="16138" width="8.375" style="36" customWidth="1"/>
+    <col min="16139" max="16139" width="10.5" style="36" customWidth="1"/>
+    <col min="16140" max="16142" width="11.125" style="36" customWidth="1"/>
+    <col min="16143" max="16143" width="13.625" style="36" customWidth="1"/>
+    <col min="16144" max="16384" width="10" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="22.7" customHeight="1">
+      <c r="A1" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="22.7" customHeight="1">
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+    </row>
+    <row r="3" spans="1:15" ht="22.7" customHeight="1">
+      <c r="A3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+    </row>
+    <row r="4" spans="1:15" ht="22.7" customHeight="1">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+    </row>
+    <row r="5" spans="1:15" ht="22.7" customHeight="1">
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+    </row>
+    <row r="6" spans="1:15" ht="22.7" customHeight="1">
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="39"/>
+    </row>
+    <row r="7" spans="1:15" ht="22.7" customHeight="1">
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="39"/>
+    </row>
+    <row r="8" spans="1:15" ht="22.7" customHeight="1">
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="39"/>
+    </row>
+    <row r="9" spans="1:15" ht="22.7" customHeight="1">
+      <c r="A9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="10" spans="1:15" ht="22.7" customHeight="1">
+      <c r="A10" s="38"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="39"/>
+    </row>
+    <row r="11" spans="1:15" ht="22.7" customHeight="1">
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="39"/>
+    </row>
+    <row r="12" spans="1:15" ht="22.7" customHeight="1">
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="39"/>
+    </row>
+    <row r="13" spans="1:15" ht="22.7" customHeight="1">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="39"/>
+    </row>
+    <row r="14" spans="1:15" ht="22.7" customHeight="1">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="39"/>
+    </row>
+    <row r="15" spans="1:15" ht="22.7" customHeight="1">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="39"/>
+    </row>
+    <row r="16" spans="1:15" ht="22.7" customHeight="1">
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="39"/>
+    </row>
+    <row r="17" spans="1:15" ht="22.7" customHeight="1">
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="39"/>
+    </row>
+    <row r="18" spans="1:15" ht="22.7" customHeight="1">
+      <c r="A18" s="38"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+    </row>
+    <row r="19" spans="1:15" ht="22.7" customHeight="1">
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="39"/>
+    </row>
+    <row r="20" spans="1:15" ht="22.7" customHeight="1">
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="39"/>
+    </row>
+    <row r="21" spans="1:15" ht="22.7" customHeight="1">
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="39"/>
+    </row>
+    <row r="22" spans="1:15" ht="22.7" customHeight="1">
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="39"/>
+    </row>
+    <row r="23" spans="1:15" ht="22.7" customHeight="1">
+      <c r="A23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="39"/>
+    </row>
+    <row r="24" spans="1:15" ht="22.7" customHeight="1">
+      <c r="A24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="39"/>
+    </row>
+    <row r="25" spans="1:15" ht="22.7" customHeight="1">
+      <c r="A25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+    </row>
+    <row r="26" spans="1:15" ht="22.7" customHeight="1">
+      <c r="A26" s="38"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+    </row>
+    <row r="27" spans="1:15" ht="22.7" customHeight="1">
+      <c r="A27" s="38"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+    </row>
+    <row r="28" spans="1:15" ht="22.7" customHeight="1">
+      <c r="A28" s="38"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+    </row>
+    <row r="29" spans="1:15" ht="22.7" customHeight="1">
+      <c r="A29" s="38"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+    </row>
+    <row r="30" spans="1:15" ht="22.7" customHeight="1">
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+    </row>
+    <row r="31" spans="1:15" ht="22.7" customHeight="1">
+      <c r="A31" s="38"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/easy-trade/easy-settle/src/main/resources/doc/template.xlsx
+++ b/easy-trade/easy-settle/src/main/resources/doc/template.xlsx
@@ -253,11 +253,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>小计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,7 +551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -674,75 +674,54 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -804,6 +783,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1182,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:P33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1203,18 +1212,18 @@
     <row r="3" spans="2:16" ht="50.25" customHeight="1" thickBot="1">
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
       <c r="N3" s="32"/>
       <c r="O3" s="3"/>
     </row>
@@ -1226,14 +1235,14 @@
       <c r="F4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="70"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="63"/>
     </row>
     <row r="5" spans="2:16" ht="21" customHeight="1">
       <c r="B5" s="25"/>
@@ -1243,14 +1252,14 @@
       <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="68"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="61"/>
     </row>
     <row r="6" spans="2:16" ht="21" customHeight="1">
       <c r="B6" s="25"/>
@@ -1260,14 +1269,14 @@
       <c r="F6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="68"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="61"/>
       <c r="O6"/>
     </row>
     <row r="7" spans="2:16" ht="21" customHeight="1">
@@ -1278,14 +1287,14 @@
       <c r="F7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="68"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="61"/>
       <c r="O7"/>
     </row>
     <row r="8" spans="2:16" ht="21" customHeight="1" thickBot="1">
@@ -1294,14 +1303,14 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="78"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="71"/>
       <c r="O8"/>
     </row>
     <row r="9" spans="2:16" ht="20.25" customHeight="1">
@@ -1389,467 +1398,473 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="2:16">
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="71">
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="64">
         <f>SUM(M30,M25)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="72"/>
-      <c r="G13" s="85" t="s">
+      <c r="F13" s="65"/>
+      <c r="G13" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="71">
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="64">
         <f>SUM(G25,I25,K25,G30,I30,K30)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="72"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="76"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="69"/>
     </row>
     <row r="14" spans="2:16" ht="17.25" thickBot="1">
-      <c r="B14" s="82"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="74"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="67"/>
     </row>
     <row r="15" spans="2:16" ht="17.25" thickBot="1">
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="65"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="62" t="s">
+      <c r="E15" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="62" t="s">
+      <c r="F15" s="57"/>
+      <c r="G15" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="62" t="s">
+      <c r="H15" s="57"/>
+      <c r="I15" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="63"/>
-      <c r="K15" s="62" t="s">
+      <c r="J15" s="57"/>
+      <c r="K15" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="L15" s="63"/>
-      <c r="M15" s="62" t="s">
+      <c r="L15" s="57"/>
+      <c r="M15" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="N15" s="63"/>
+      <c r="N15" s="57"/>
     </row>
     <row r="16" spans="2:16" ht="17.25" thickBot="1">
-      <c r="B16" s="59"/>
-      <c r="C16" s="60"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="33"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="53">
-        <v>0</v>
-      </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="53">
-        <v>0</v>
-      </c>
-      <c r="J16" s="58"/>
-      <c r="K16" s="53">
-        <v>0</v>
-      </c>
-      <c r="L16" s="58"/>
-      <c r="M16" s="53">
-        <v>0</v>
-      </c>
-      <c r="N16" s="58"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="49">
+        <v>0</v>
+      </c>
+      <c r="H16" s="55"/>
+      <c r="I16" s="49">
+        <v>0</v>
+      </c>
+      <c r="J16" s="55"/>
+      <c r="K16" s="49">
+        <v>0</v>
+      </c>
+      <c r="L16" s="55"/>
+      <c r="M16" s="49">
+        <v>0</v>
+      </c>
+      <c r="N16" s="55"/>
     </row>
     <row r="17" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B17" s="59"/>
-      <c r="C17" s="60"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="33"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="53">
-        <v>0</v>
-      </c>
-      <c r="H17" s="58"/>
-      <c r="I17" s="53">
-        <v>0</v>
-      </c>
-      <c r="J17" s="58"/>
-      <c r="K17" s="53">
-        <v>0</v>
-      </c>
-      <c r="L17" s="58"/>
-      <c r="M17" s="53">
-        <v>0</v>
-      </c>
-      <c r="N17" s="58"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="49">
+        <v>0</v>
+      </c>
+      <c r="H17" s="55"/>
+      <c r="I17" s="49">
+        <v>0</v>
+      </c>
+      <c r="J17" s="55"/>
+      <c r="K17" s="49">
+        <v>0</v>
+      </c>
+      <c r="L17" s="55"/>
+      <c r="M17" s="49">
+        <v>0</v>
+      </c>
+      <c r="N17" s="55"/>
     </row>
     <row r="18" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B18" s="59"/>
-      <c r="C18" s="60"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="33"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="53">
-        <v>0</v>
-      </c>
-      <c r="H18" s="58"/>
-      <c r="I18" s="53">
-        <v>0</v>
-      </c>
-      <c r="J18" s="58"/>
-      <c r="K18" s="53">
-        <v>0</v>
-      </c>
-      <c r="L18" s="58"/>
-      <c r="M18" s="53">
-        <v>0</v>
-      </c>
-      <c r="N18" s="58"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="49">
+        <v>0</v>
+      </c>
+      <c r="H18" s="55"/>
+      <c r="I18" s="49">
+        <v>0</v>
+      </c>
+      <c r="J18" s="55"/>
+      <c r="K18" s="49">
+        <v>0</v>
+      </c>
+      <c r="L18" s="55"/>
+      <c r="M18" s="49">
+        <v>0</v>
+      </c>
+      <c r="N18" s="55"/>
     </row>
     <row r="19" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B19" s="59"/>
-      <c r="C19" s="60"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="33"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="53">
-        <v>0</v>
-      </c>
-      <c r="H19" s="58"/>
-      <c r="I19" s="53">
-        <v>0</v>
-      </c>
-      <c r="J19" s="58"/>
-      <c r="K19" s="53">
-        <v>0</v>
-      </c>
-      <c r="L19" s="58"/>
-      <c r="M19" s="53">
-        <v>0</v>
-      </c>
-      <c r="N19" s="58"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="49">
+        <v>0</v>
+      </c>
+      <c r="H19" s="55"/>
+      <c r="I19" s="49">
+        <v>0</v>
+      </c>
+      <c r="J19" s="55"/>
+      <c r="K19" s="49">
+        <v>0</v>
+      </c>
+      <c r="L19" s="55"/>
+      <c r="M19" s="49">
+        <v>0</v>
+      </c>
+      <c r="N19" s="55"/>
     </row>
     <row r="20" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B20" s="59"/>
-      <c r="C20" s="60"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="33"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="53">
-        <v>0</v>
-      </c>
-      <c r="H20" s="58"/>
-      <c r="I20" s="53">
-        <v>0</v>
-      </c>
-      <c r="J20" s="58"/>
-      <c r="K20" s="53">
-        <v>0</v>
-      </c>
-      <c r="L20" s="58"/>
-      <c r="M20" s="53">
-        <v>0</v>
-      </c>
-      <c r="N20" s="58"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="49">
+        <v>0</v>
+      </c>
+      <c r="H20" s="55"/>
+      <c r="I20" s="49">
+        <v>0</v>
+      </c>
+      <c r="J20" s="55"/>
+      <c r="K20" s="49">
+        <v>0</v>
+      </c>
+      <c r="L20" s="55"/>
+      <c r="M20" s="49">
+        <v>0</v>
+      </c>
+      <c r="N20" s="55"/>
     </row>
     <row r="21" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B21" s="59"/>
-      <c r="C21" s="60"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="33"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="53">
-        <v>0</v>
-      </c>
-      <c r="H21" s="58"/>
-      <c r="I21" s="53">
-        <v>0</v>
-      </c>
-      <c r="J21" s="58"/>
-      <c r="K21" s="53">
-        <v>0</v>
-      </c>
-      <c r="L21" s="58"/>
-      <c r="M21" s="53">
-        <v>0</v>
-      </c>
-      <c r="N21" s="58"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="49">
+        <v>0</v>
+      </c>
+      <c r="H21" s="55"/>
+      <c r="I21" s="49">
+        <v>0</v>
+      </c>
+      <c r="J21" s="55"/>
+      <c r="K21" s="49">
+        <v>0</v>
+      </c>
+      <c r="L21" s="55"/>
+      <c r="M21" s="49">
+        <v>0</v>
+      </c>
+      <c r="N21" s="55"/>
     </row>
     <row r="22" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B22" s="59"/>
-      <c r="C22" s="60"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="33"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="53">
-        <v>0</v>
-      </c>
-      <c r="H22" s="58"/>
-      <c r="I22" s="53">
-        <v>0</v>
-      </c>
-      <c r="J22" s="58"/>
-      <c r="K22" s="53">
-        <v>0</v>
-      </c>
-      <c r="L22" s="58"/>
-      <c r="M22" s="53">
-        <v>0</v>
-      </c>
-      <c r="N22" s="58"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="49">
+        <v>0</v>
+      </c>
+      <c r="H22" s="55"/>
+      <c r="I22" s="49">
+        <v>0</v>
+      </c>
+      <c r="J22" s="55"/>
+      <c r="K22" s="49">
+        <v>0</v>
+      </c>
+      <c r="L22" s="55"/>
+      <c r="M22" s="49">
+        <v>0</v>
+      </c>
+      <c r="N22" s="55"/>
     </row>
     <row r="23" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B23" s="59"/>
-      <c r="C23" s="60"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="33"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="53">
-        <v>0</v>
-      </c>
-      <c r="H23" s="58"/>
-      <c r="I23" s="53">
-        <v>0</v>
-      </c>
-      <c r="J23" s="58"/>
-      <c r="K23" s="53">
-        <v>0</v>
-      </c>
-      <c r="L23" s="58"/>
-      <c r="M23" s="53">
-        <v>0</v>
-      </c>
-      <c r="N23" s="58"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="49">
+        <v>0</v>
+      </c>
+      <c r="H23" s="55"/>
+      <c r="I23" s="49">
+        <v>0</v>
+      </c>
+      <c r="J23" s="55"/>
+      <c r="K23" s="49">
+        <v>0</v>
+      </c>
+      <c r="L23" s="55"/>
+      <c r="M23" s="49">
+        <v>0</v>
+      </c>
+      <c r="N23" s="55"/>
     </row>
     <row r="24" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B24" s="59"/>
-      <c r="C24" s="60"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="33"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="53">
-        <v>0</v>
-      </c>
-      <c r="H24" s="58"/>
-      <c r="I24" s="53">
-        <v>0</v>
-      </c>
-      <c r="J24" s="58"/>
-      <c r="K24" s="53">
-        <v>0</v>
-      </c>
-      <c r="L24" s="58"/>
-      <c r="M24" s="53">
-        <v>0</v>
-      </c>
-      <c r="N24" s="58"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="49">
+        <v>0</v>
+      </c>
+      <c r="H24" s="55"/>
+      <c r="I24" s="49">
+        <v>0</v>
+      </c>
+      <c r="J24" s="55"/>
+      <c r="K24" s="49">
+        <v>0</v>
+      </c>
+      <c r="L24" s="55"/>
+      <c r="M24" s="49">
+        <v>0</v>
+      </c>
+      <c r="N24" s="55"/>
     </row>
     <row r="25" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B25" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="51">
+      <c r="B25" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="87">
+        <f>SUM(E16:F24)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="88"/>
+      <c r="G25" s="84">
         <f>SUM(G16:H24)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="48"/>
-      <c r="I25" s="51">
+      <c r="H25" s="82"/>
+      <c r="I25" s="84">
         <f>SUM(I16:J24)</f>
         <v>0</v>
       </c>
-      <c r="J25" s="48"/>
-      <c r="K25" s="51">
+      <c r="J25" s="82"/>
+      <c r="K25" s="84">
         <f>SUM(K16:L24)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="48"/>
-      <c r="M25" s="51">
+      <c r="L25" s="82"/>
+      <c r="M25" s="84">
         <f>SUM(M16:N24)</f>
         <v>0</v>
       </c>
-      <c r="N25" s="52"/>
+      <c r="N25" s="85"/>
     </row>
     <row r="26" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="65"/>
+      <c r="C26" s="58"/>
       <c r="D26" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="62" t="s">
+      <c r="E26" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="63"/>
-      <c r="G26" s="62" t="s">
+      <c r="F26" s="57"/>
+      <c r="G26" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="63"/>
-      <c r="I26" s="62" t="s">
+      <c r="H26" s="57"/>
+      <c r="I26" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="63"/>
-      <c r="K26" s="62" t="s">
+      <c r="J26" s="57"/>
+      <c r="K26" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="63"/>
-      <c r="M26" s="62" t="s">
+      <c r="L26" s="57"/>
+      <c r="M26" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="N26" s="63"/>
+      <c r="N26" s="57"/>
     </row>
     <row r="27" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B27" s="54"/>
-      <c r="C27" s="55"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="56">
-        <v>0</v>
-      </c>
-      <c r="H27" s="57"/>
-      <c r="I27" s="56">
-        <v>0</v>
-      </c>
-      <c r="J27" s="57"/>
-      <c r="K27" s="53">
-        <v>0</v>
-      </c>
-      <c r="L27" s="52"/>
-      <c r="M27" s="53">
-        <v>0</v>
-      </c>
-      <c r="N27" s="52"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="49">
+        <v>0</v>
+      </c>
+      <c r="H27" s="48"/>
+      <c r="I27" s="49">
+        <v>0</v>
+      </c>
+      <c r="J27" s="48"/>
+      <c r="K27" s="49">
+        <v>0</v>
+      </c>
+      <c r="L27" s="48"/>
+      <c r="M27" s="49">
+        <v>0</v>
+      </c>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="56">
-        <v>0</v>
-      </c>
-      <c r="H28" s="57"/>
-      <c r="I28" s="56">
-        <v>0</v>
-      </c>
-      <c r="J28" s="57"/>
-      <c r="K28" s="53">
-        <v>0</v>
-      </c>
-      <c r="L28" s="52"/>
-      <c r="M28" s="53">
-        <v>0</v>
-      </c>
-      <c r="N28" s="52"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="49">
+        <v>0</v>
+      </c>
+      <c r="H28" s="48"/>
+      <c r="I28" s="49">
+        <v>0</v>
+      </c>
+      <c r="J28" s="48"/>
+      <c r="K28" s="49">
+        <v>0</v>
+      </c>
+      <c r="L28" s="48"/>
+      <c r="M28" s="49">
+        <v>0</v>
+      </c>
+      <c r="N28" s="48"/>
     </row>
     <row r="29" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="56">
-        <v>0</v>
-      </c>
-      <c r="H29" s="57"/>
-      <c r="I29" s="56">
-        <v>0</v>
-      </c>
-      <c r="J29" s="57"/>
-      <c r="K29" s="53">
-        <v>0</v>
-      </c>
-      <c r="L29" s="52"/>
-      <c r="M29" s="53">
-        <v>0</v>
-      </c>
-      <c r="N29" s="52"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="49">
+        <v>0</v>
+      </c>
+      <c r="H29" s="48"/>
+      <c r="I29" s="49">
+        <v>0</v>
+      </c>
+      <c r="J29" s="48"/>
+      <c r="K29" s="49">
+        <v>0</v>
+      </c>
+      <c r="L29" s="48"/>
+      <c r="M29" s="49">
+        <v>0</v>
+      </c>
+      <c r="N29" s="48"/>
     </row>
     <row r="30" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="83"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="87">
+        <f>SUM(E27:F29)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="88"/>
+      <c r="G30" s="84">
+        <f>SUM(G27:H29)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="82"/>
+      <c r="I30" s="84">
+        <f>SUM(I27:J29)</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="82"/>
+      <c r="K30" s="84">
+        <f>SUM(K27:L29)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="82"/>
+      <c r="M30" s="84">
+        <f>SUM(M27:N29)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="85"/>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="51">
-        <f>SUM(G27:H29)</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="48"/>
-      <c r="I30" s="51">
-        <f>SUM(I27:J29)</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="48"/>
-      <c r="K30" s="51">
-        <f>SUM(K27:L29)</f>
-        <v>0</v>
-      </c>
-      <c r="L30" s="48"/>
-      <c r="M30" s="51">
-        <f>SUM(M27:N29)</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="52"/>
-    </row>
-    <row r="31" spans="2:14">
-      <c r="B31" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="50">
+      <c r="C31" s="44"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="47">
         <f>SUM(G30,G25)</f>
         <v>0</v>
       </c>
-      <c r="H31" s="49"/>
-      <c r="I31" s="50">
+      <c r="H31" s="46"/>
+      <c r="I31" s="47">
         <f>SUM(I30,I25)</f>
         <v>0</v>
       </c>
-      <c r="J31" s="49"/>
-      <c r="K31" s="50">
+      <c r="J31" s="46"/>
+      <c r="K31" s="47">
         <f>SUM(K30,K25)</f>
         <v>0</v>
       </c>
-      <c r="L31" s="49"/>
-      <c r="M31" s="50">
+      <c r="L31" s="46"/>
+      <c r="M31" s="47">
         <f>SUM(M30,M25)</f>
         <v>0</v>
       </c>
-      <c r="N31" s="64"/>
+      <c r="N31" s="50"/>
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="27"/>
@@ -1929,6 +1944,10 @@
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="M19:N19"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="M20:N20"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="K24:L24"/>
@@ -1939,6 +1958,8 @@
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K20:L20"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B23:C23"/>
@@ -1957,15 +1978,9 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="G27:H27"/>

--- a/easy-trade/easy-settle/src/main/resources/doc/template.xlsx
+++ b/easy-trade/easy-settle/src/main/resources/doc/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="14955" windowHeight="4620"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="14955" windowHeight="4620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="商户对账单汇总" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="订单账务明细" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">卡券账务明细!$A$1:$S$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">卡券账务明细!$A$1:$T$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
     <t>账期：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,6 +258,10 @@
   </si>
   <si>
     <t>小计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用积分金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,134 +690,134 @@
     <xf numFmtId="58" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -857,7 +861,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -880,14 +884,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cmpd="sng">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1191,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:P33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16:L16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1212,18 +1216,18 @@
     <row r="3" spans="2:16" ht="50.25" customHeight="1" thickBot="1">
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
       <c r="N3" s="32"/>
       <c r="O3" s="3"/>
     </row>
@@ -1235,14 +1239,14 @@
       <c r="F4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="63"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="52"/>
     </row>
     <row r="5" spans="2:16" ht="21" customHeight="1">
       <c r="B5" s="25"/>
@@ -1252,14 +1256,14 @@
       <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="61"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="50"/>
     </row>
     <row r="6" spans="2:16" ht="21" customHeight="1">
       <c r="B6" s="25"/>
@@ -1269,14 +1273,14 @@
       <c r="F6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="61"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="50"/>
       <c r="O6"/>
     </row>
     <row r="7" spans="2:16" ht="21" customHeight="1">
@@ -1287,14 +1291,14 @@
       <c r="F7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="61"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="50"/>
       <c r="O7"/>
     </row>
     <row r="8" spans="2:16" ht="21" customHeight="1" thickBot="1">
@@ -1303,14 +1307,14 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="71"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="60"/>
       <c r="O8"/>
     </row>
     <row r="9" spans="2:16" ht="20.25" customHeight="1">
@@ -1398,444 +1402,444 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="2:16">
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="64">
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="53">
         <f>SUM(M30,M25)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="78" t="s">
+      <c r="F13" s="54"/>
+      <c r="G13" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="64">
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="53">
         <f>SUM(G25,I25,K25,G30,I30,K30)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="65"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="69"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="58"/>
     </row>
     <row r="14" spans="2:16" ht="17.25" thickBot="1">
-      <c r="B14" s="75"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="67"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="56"/>
     </row>
     <row r="15" spans="2:16" ht="17.25" thickBot="1">
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="58"/>
+      <c r="C15" s="76"/>
       <c r="D15" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="57"/>
-      <c r="G15" s="56" t="s">
+      <c r="F15" s="75"/>
+      <c r="G15" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="57"/>
-      <c r="I15" s="56" t="s">
+      <c r="H15" s="75"/>
+      <c r="I15" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="57"/>
-      <c r="K15" s="56" t="s">
+      <c r="J15" s="75"/>
+      <c r="K15" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="L15" s="57"/>
-      <c r="M15" s="56" t="s">
+      <c r="L15" s="75"/>
+      <c r="M15" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="N15" s="57"/>
+      <c r="N15" s="75"/>
     </row>
     <row r="16" spans="2:16" ht="17.25" thickBot="1">
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="78"/>
       <c r="D16" s="33"/>
       <c r="E16" s="79"/>
       <c r="F16" s="80"/>
-      <c r="G16" s="49">
-        <v>0</v>
-      </c>
-      <c r="H16" s="55"/>
-      <c r="I16" s="49">
-        <v>0</v>
-      </c>
-      <c r="J16" s="55"/>
-      <c r="K16" s="49">
-        <v>0</v>
-      </c>
-      <c r="L16" s="55"/>
-      <c r="M16" s="49">
-        <v>0</v>
-      </c>
-      <c r="N16" s="55"/>
+      <c r="G16" s="70">
+        <v>0</v>
+      </c>
+      <c r="H16" s="81"/>
+      <c r="I16" s="70">
+        <v>0</v>
+      </c>
+      <c r="J16" s="81"/>
+      <c r="K16" s="70">
+        <v>0</v>
+      </c>
+      <c r="L16" s="81"/>
+      <c r="M16" s="70">
+        <v>0</v>
+      </c>
+      <c r="N16" s="81"/>
     </row>
     <row r="17" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="33"/>
       <c r="E17" s="79"/>
       <c r="F17" s="80"/>
-      <c r="G17" s="49">
-        <v>0</v>
-      </c>
-      <c r="H17" s="55"/>
-      <c r="I17" s="49">
-        <v>0</v>
-      </c>
-      <c r="J17" s="55"/>
-      <c r="K17" s="49">
-        <v>0</v>
-      </c>
-      <c r="L17" s="55"/>
-      <c r="M17" s="49">
-        <v>0</v>
-      </c>
-      <c r="N17" s="55"/>
+      <c r="G17" s="70">
+        <v>0</v>
+      </c>
+      <c r="H17" s="81"/>
+      <c r="I17" s="70">
+        <v>0</v>
+      </c>
+      <c r="J17" s="81"/>
+      <c r="K17" s="70">
+        <v>0</v>
+      </c>
+      <c r="L17" s="81"/>
+      <c r="M17" s="70">
+        <v>0</v>
+      </c>
+      <c r="N17" s="81"/>
     </row>
     <row r="18" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="33"/>
       <c r="E18" s="79"/>
       <c r="F18" s="80"/>
-      <c r="G18" s="49">
-        <v>0</v>
-      </c>
-      <c r="H18" s="55"/>
-      <c r="I18" s="49">
-        <v>0</v>
-      </c>
-      <c r="J18" s="55"/>
-      <c r="K18" s="49">
-        <v>0</v>
-      </c>
-      <c r="L18" s="55"/>
-      <c r="M18" s="49">
-        <v>0</v>
-      </c>
-      <c r="N18" s="55"/>
+      <c r="G18" s="70">
+        <v>0</v>
+      </c>
+      <c r="H18" s="81"/>
+      <c r="I18" s="70">
+        <v>0</v>
+      </c>
+      <c r="J18" s="81"/>
+      <c r="K18" s="70">
+        <v>0</v>
+      </c>
+      <c r="L18" s="81"/>
+      <c r="M18" s="70">
+        <v>0</v>
+      </c>
+      <c r="N18" s="81"/>
     </row>
     <row r="19" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="33"/>
       <c r="E19" s="79"/>
       <c r="F19" s="80"/>
-      <c r="G19" s="49">
-        <v>0</v>
-      </c>
-      <c r="H19" s="55"/>
-      <c r="I19" s="49">
-        <v>0</v>
-      </c>
-      <c r="J19" s="55"/>
-      <c r="K19" s="49">
-        <v>0</v>
-      </c>
-      <c r="L19" s="55"/>
-      <c r="M19" s="49">
-        <v>0</v>
-      </c>
-      <c r="N19" s="55"/>
+      <c r="G19" s="70">
+        <v>0</v>
+      </c>
+      <c r="H19" s="81"/>
+      <c r="I19" s="70">
+        <v>0</v>
+      </c>
+      <c r="J19" s="81"/>
+      <c r="K19" s="70">
+        <v>0</v>
+      </c>
+      <c r="L19" s="81"/>
+      <c r="M19" s="70">
+        <v>0</v>
+      </c>
+      <c r="N19" s="81"/>
     </row>
     <row r="20" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="78"/>
       <c r="D20" s="33"/>
       <c r="E20" s="79"/>
       <c r="F20" s="80"/>
-      <c r="G20" s="49">
-        <v>0</v>
-      </c>
-      <c r="H20" s="55"/>
-      <c r="I20" s="49">
-        <v>0</v>
-      </c>
-      <c r="J20" s="55"/>
-      <c r="K20" s="49">
-        <v>0</v>
-      </c>
-      <c r="L20" s="55"/>
-      <c r="M20" s="49">
-        <v>0</v>
-      </c>
-      <c r="N20" s="55"/>
+      <c r="G20" s="70">
+        <v>0</v>
+      </c>
+      <c r="H20" s="81"/>
+      <c r="I20" s="70">
+        <v>0</v>
+      </c>
+      <c r="J20" s="81"/>
+      <c r="K20" s="70">
+        <v>0</v>
+      </c>
+      <c r="L20" s="81"/>
+      <c r="M20" s="70">
+        <v>0</v>
+      </c>
+      <c r="N20" s="81"/>
     </row>
     <row r="21" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B21" s="53"/>
-      <c r="C21" s="54"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="78"/>
       <c r="D21" s="33"/>
       <c r="E21" s="79"/>
       <c r="F21" s="80"/>
-      <c r="G21" s="49">
-        <v>0</v>
-      </c>
-      <c r="H21" s="55"/>
-      <c r="I21" s="49">
-        <v>0</v>
-      </c>
-      <c r="J21" s="55"/>
-      <c r="K21" s="49">
-        <v>0</v>
-      </c>
-      <c r="L21" s="55"/>
-      <c r="M21" s="49">
-        <v>0</v>
-      </c>
-      <c r="N21" s="55"/>
+      <c r="G21" s="70">
+        <v>0</v>
+      </c>
+      <c r="H21" s="81"/>
+      <c r="I21" s="70">
+        <v>0</v>
+      </c>
+      <c r="J21" s="81"/>
+      <c r="K21" s="70">
+        <v>0</v>
+      </c>
+      <c r="L21" s="81"/>
+      <c r="M21" s="70">
+        <v>0</v>
+      </c>
+      <c r="N21" s="81"/>
     </row>
     <row r="22" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="78"/>
       <c r="D22" s="33"/>
       <c r="E22" s="79"/>
       <c r="F22" s="80"/>
-      <c r="G22" s="49">
-        <v>0</v>
-      </c>
-      <c r="H22" s="55"/>
-      <c r="I22" s="49">
-        <v>0</v>
-      </c>
-      <c r="J22" s="55"/>
-      <c r="K22" s="49">
-        <v>0</v>
-      </c>
-      <c r="L22" s="55"/>
-      <c r="M22" s="49">
-        <v>0</v>
-      </c>
-      <c r="N22" s="55"/>
+      <c r="G22" s="70">
+        <v>0</v>
+      </c>
+      <c r="H22" s="81"/>
+      <c r="I22" s="70">
+        <v>0</v>
+      </c>
+      <c r="J22" s="81"/>
+      <c r="K22" s="70">
+        <v>0</v>
+      </c>
+      <c r="L22" s="81"/>
+      <c r="M22" s="70">
+        <v>0</v>
+      </c>
+      <c r="N22" s="81"/>
     </row>
     <row r="23" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="33"/>
       <c r="E23" s="79"/>
       <c r="F23" s="80"/>
-      <c r="G23" s="49">
-        <v>0</v>
-      </c>
-      <c r="H23" s="55"/>
-      <c r="I23" s="49">
-        <v>0</v>
-      </c>
-      <c r="J23" s="55"/>
-      <c r="K23" s="49">
-        <v>0</v>
-      </c>
-      <c r="L23" s="55"/>
-      <c r="M23" s="49">
-        <v>0</v>
-      </c>
-      <c r="N23" s="55"/>
+      <c r="G23" s="70">
+        <v>0</v>
+      </c>
+      <c r="H23" s="81"/>
+      <c r="I23" s="70">
+        <v>0</v>
+      </c>
+      <c r="J23" s="81"/>
+      <c r="K23" s="70">
+        <v>0</v>
+      </c>
+      <c r="L23" s="81"/>
+      <c r="M23" s="70">
+        <v>0</v>
+      </c>
+      <c r="N23" s="81"/>
     </row>
     <row r="24" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B24" s="53"/>
-      <c r="C24" s="54"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="78"/>
       <c r="D24" s="33"/>
       <c r="E24" s="79"/>
       <c r="F24" s="80"/>
-      <c r="G24" s="49">
-        <v>0</v>
-      </c>
-      <c r="H24" s="55"/>
-      <c r="I24" s="49">
-        <v>0</v>
-      </c>
-      <c r="J24" s="55"/>
-      <c r="K24" s="49">
-        <v>0</v>
-      </c>
-      <c r="L24" s="55"/>
-      <c r="M24" s="49">
-        <v>0</v>
-      </c>
-      <c r="N24" s="55"/>
+      <c r="G24" s="70">
+        <v>0</v>
+      </c>
+      <c r="H24" s="81"/>
+      <c r="I24" s="70">
+        <v>0</v>
+      </c>
+      <c r="J24" s="81"/>
+      <c r="K24" s="70">
+        <v>0</v>
+      </c>
+      <c r="L24" s="81"/>
+      <c r="M24" s="70">
+        <v>0</v>
+      </c>
+      <c r="N24" s="81"/>
     </row>
     <row r="25" spans="2:14" ht="17.25" thickBot="1">
       <c r="B25" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="87">
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="72">
         <f>SUM(E16:F24)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="88"/>
-      <c r="G25" s="84">
+      <c r="F25" s="73"/>
+      <c r="G25" s="85">
         <f>SUM(G16:H24)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="82"/>
-      <c r="I25" s="84">
+      <c r="H25" s="86"/>
+      <c r="I25" s="85">
         <f>SUM(I16:J24)</f>
         <v>0</v>
       </c>
-      <c r="J25" s="82"/>
-      <c r="K25" s="84">
+      <c r="J25" s="86"/>
+      <c r="K25" s="85">
         <f>SUM(K16:L24)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="82"/>
-      <c r="M25" s="84">
+      <c r="L25" s="86"/>
+      <c r="M25" s="85">
         <f>SUM(M16:N24)</f>
         <v>0</v>
       </c>
-      <c r="N25" s="85"/>
+      <c r="N25" s="87"/>
     </row>
     <row r="26" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="58"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="56" t="s">
+      <c r="E26" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="57"/>
-      <c r="G26" s="56" t="s">
+      <c r="F26" s="75"/>
+      <c r="G26" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="57"/>
-      <c r="I26" s="56" t="s">
+      <c r="H26" s="75"/>
+      <c r="I26" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="57"/>
-      <c r="K26" s="56" t="s">
+      <c r="J26" s="75"/>
+      <c r="K26" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="57"/>
-      <c r="M26" s="56" t="s">
+      <c r="L26" s="75"/>
+      <c r="M26" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="N26" s="57"/>
+      <c r="N26" s="75"/>
     </row>
     <row r="27" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B27" s="51"/>
-      <c r="C27" s="52"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="34"/>
       <c r="E27" s="79"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="49">
-        <v>0</v>
-      </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="49">
-        <v>0</v>
-      </c>
-      <c r="J27" s="48"/>
-      <c r="K27" s="49">
-        <v>0</v>
-      </c>
-      <c r="L27" s="48"/>
-      <c r="M27" s="49">
-        <v>0</v>
-      </c>
-      <c r="N27" s="48"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="70">
+        <v>0</v>
+      </c>
+      <c r="H27" s="71"/>
+      <c r="I27" s="70">
+        <v>0</v>
+      </c>
+      <c r="J27" s="71"/>
+      <c r="K27" s="70">
+        <v>0</v>
+      </c>
+      <c r="L27" s="71"/>
+      <c r="M27" s="70">
+        <v>0</v>
+      </c>
+      <c r="N27" s="71"/>
     </row>
     <row r="28" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B28" s="51"/>
-      <c r="C28" s="52"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="69"/>
       <c r="D28" s="34"/>
       <c r="E28" s="79"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="49">
-        <v>0</v>
-      </c>
-      <c r="H28" s="48"/>
-      <c r="I28" s="49">
-        <v>0</v>
-      </c>
-      <c r="J28" s="48"/>
-      <c r="K28" s="49">
-        <v>0</v>
-      </c>
-      <c r="L28" s="48"/>
-      <c r="M28" s="49">
-        <v>0</v>
-      </c>
-      <c r="N28" s="48"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="70">
+        <v>0</v>
+      </c>
+      <c r="H28" s="71"/>
+      <c r="I28" s="70">
+        <v>0</v>
+      </c>
+      <c r="J28" s="71"/>
+      <c r="K28" s="70">
+        <v>0</v>
+      </c>
+      <c r="L28" s="71"/>
+      <c r="M28" s="70">
+        <v>0</v>
+      </c>
+      <c r="N28" s="71"/>
     </row>
     <row r="29" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B29" s="51"/>
-      <c r="C29" s="52"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="69"/>
       <c r="D29" s="34"/>
       <c r="E29" s="79"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="49">
-        <v>0</v>
-      </c>
-      <c r="H29" s="48"/>
-      <c r="I29" s="49">
-        <v>0</v>
-      </c>
-      <c r="J29" s="48"/>
-      <c r="K29" s="49">
-        <v>0</v>
-      </c>
-      <c r="L29" s="48"/>
-      <c r="M29" s="49">
-        <v>0</v>
-      </c>
-      <c r="N29" s="48"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="70">
+        <v>0</v>
+      </c>
+      <c r="H29" s="71"/>
+      <c r="I29" s="70">
+        <v>0</v>
+      </c>
+      <c r="J29" s="71"/>
+      <c r="K29" s="70">
+        <v>0</v>
+      </c>
+      <c r="L29" s="71"/>
+      <c r="M29" s="70">
+        <v>0</v>
+      </c>
+      <c r="N29" s="71"/>
     </row>
     <row r="30" spans="2:14" ht="17.25" thickBot="1">
       <c r="B30" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="83"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="87">
+      <c r="C30" s="46"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="72">
         <f>SUM(E27:F29)</f>
         <v>0</v>
       </c>
-      <c r="F30" s="88"/>
-      <c r="G30" s="84">
+      <c r="F30" s="73"/>
+      <c r="G30" s="85">
         <f>SUM(G27:H29)</f>
         <v>0</v>
       </c>
-      <c r="H30" s="82"/>
-      <c r="I30" s="84">
+      <c r="H30" s="86"/>
+      <c r="I30" s="85">
         <f>SUM(I27:J29)</f>
         <v>0</v>
       </c>
-      <c r="J30" s="82"/>
-      <c r="K30" s="84">
+      <c r="J30" s="86"/>
+      <c r="K30" s="85">
         <f>SUM(K27:L29)</f>
         <v>0</v>
       </c>
-      <c r="L30" s="82"/>
-      <c r="M30" s="84">
+      <c r="L30" s="86"/>
+      <c r="M30" s="85">
         <f>SUM(M27:N29)</f>
         <v>0</v>
       </c>
-      <c r="N30" s="85"/>
+      <c r="N30" s="87"/>
     </row>
     <row r="31" spans="2:14">
       <c r="B31" s="43" t="s">
@@ -1843,28 +1847,28 @@
       </c>
       <c r="C31" s="44"/>
       <c r="D31" s="42"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="47">
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="84">
         <f>SUM(G30,G25)</f>
         <v>0</v>
       </c>
-      <c r="H31" s="46"/>
-      <c r="I31" s="47">
+      <c r="H31" s="83"/>
+      <c r="I31" s="84">
         <f>SUM(I30,I25)</f>
         <v>0</v>
       </c>
-      <c r="J31" s="46"/>
-      <c r="K31" s="47">
+      <c r="J31" s="83"/>
+      <c r="K31" s="84">
         <f>SUM(K30,K25)</f>
         <v>0</v>
       </c>
-      <c r="L31" s="46"/>
-      <c r="M31" s="47">
+      <c r="L31" s="83"/>
+      <c r="M31" s="84">
         <f>SUM(M30,M25)</f>
         <v>0</v>
       </c>
-      <c r="N31" s="50"/>
+      <c r="N31" s="88"/>
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="27"/>
@@ -1898,18 +1902,81 @@
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="D3:M3"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="M13:N14"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="G6:N6"/>
-    <mergeCell ref="G7:N7"/>
-    <mergeCell ref="G8:N8"/>
-    <mergeCell ref="B13:D14"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="G13:J14"/>
-    <mergeCell ref="K13:L14"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="M20:N20"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="I29:J29"/>
@@ -1934,81 +2001,18 @@
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="M24:N24"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="M13:N14"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="G6:N6"/>
+    <mergeCell ref="G7:N7"/>
+    <mergeCell ref="G8:N8"/>
+    <mergeCell ref="B13:D14"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="G13:J14"/>
+    <mergeCell ref="K13:L14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.37" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2019,10 +2023,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2037,15 +2041,15 @@
     <col min="8" max="8" width="9" style="12" collapsed="1"/>
     <col min="9" max="10" width="14.5" style="12" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="23.125" style="29" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="19.625" style="29" customWidth="1" collapsed="1"/>
-    <col min="14" max="15" width="14" style="12" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="17.75" style="12" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="13.75" style="12" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.5" style="12" customWidth="1" collapsed="1"/>
-    <col min="20" max="16384" width="9" style="12" collapsed="1"/>
+    <col min="12" max="14" width="19.625" style="29" customWidth="1" collapsed="1"/>
+    <col min="15" max="16" width="14" style="12" customWidth="1" collapsed="1"/>
+    <col min="17" max="18" width="17.75" style="12" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.75" style="12" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14.5" style="12" customWidth="1" collapsed="1"/>
+    <col min="21" max="16384" width="9" style="12" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="13" customFormat="1">
+    <row r="1" spans="1:20" s="13" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
@@ -2083,28 +2087,31 @@
         <v>14</v>
       </c>
       <c r="M1" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -2124,8 +2131,9 @@
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2"/>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
@@ -2145,8 +2153,9 @@
       <c r="Q3"/>
       <c r="R3"/>
       <c r="S3"/>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3"/>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -2166,8 +2175,9 @@
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4"/>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -2187,8 +2197,9 @@
       <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5"/>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -2208,8 +2219,9 @@
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6"/>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -2229,8 +2241,9 @@
       <c r="Q7"/>
       <c r="R7"/>
       <c r="S7"/>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7"/>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -2250,8 +2263,9 @@
       <c r="Q8"/>
       <c r="R8"/>
       <c r="S8"/>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8"/>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -2271,8 +2285,9 @@
       <c r="Q9"/>
       <c r="R9"/>
       <c r="S9"/>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9"/>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -2292,8 +2307,9 @@
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10"/>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10"/>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -2313,8 +2329,9 @@
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11"/>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11"/>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -2334,8 +2351,9 @@
       <c r="Q12"/>
       <c r="R12"/>
       <c r="S12"/>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -2355,8 +2373,9 @@
       <c r="Q13"/>
       <c r="R13"/>
       <c r="S13"/>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -2376,8 +2395,9 @@
       <c r="Q14"/>
       <c r="R14"/>
       <c r="S14"/>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14"/>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -2397,8 +2417,9 @@
       <c r="Q15"/>
       <c r="R15"/>
       <c r="S15"/>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15"/>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -2418,8 +2439,9 @@
       <c r="Q16"/>
       <c r="R16"/>
       <c r="S16"/>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16"/>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -2439,8 +2461,9 @@
       <c r="Q17"/>
       <c r="R17"/>
       <c r="S17"/>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17"/>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -2460,8 +2483,9 @@
       <c r="Q18"/>
       <c r="R18"/>
       <c r="S18"/>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18"/>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -2481,8 +2505,9 @@
       <c r="Q19"/>
       <c r="R19"/>
       <c r="S19"/>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19"/>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -2502,8 +2527,9 @@
       <c r="Q20"/>
       <c r="R20"/>
       <c r="S20"/>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20"/>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -2523,8 +2549,9 @@
       <c r="Q21"/>
       <c r="R21"/>
       <c r="S21"/>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="T21"/>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -2544,8 +2571,9 @@
       <c r="Q22"/>
       <c r="R22"/>
       <c r="S22"/>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22"/>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -2565,8 +2593,9 @@
       <c r="Q23"/>
       <c r="R23"/>
       <c r="S23"/>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="T23"/>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -2586,8 +2615,9 @@
       <c r="Q24"/>
       <c r="R24"/>
       <c r="S24"/>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="T24"/>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -2607,8 +2637,9 @@
       <c r="Q25"/>
       <c r="R25"/>
       <c r="S25"/>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="T25"/>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -2628,8 +2659,9 @@
       <c r="Q26"/>
       <c r="R26"/>
       <c r="S26"/>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="T26"/>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -2649,8 +2681,9 @@
       <c r="Q27"/>
       <c r="R27"/>
       <c r="S27"/>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="T27"/>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -2670,8 +2703,9 @@
       <c r="Q28"/>
       <c r="R28"/>
       <c r="S28"/>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="T28"/>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -2691,8 +2725,9 @@
       <c r="Q29"/>
       <c r="R29"/>
       <c r="S29"/>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="T29"/>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -2712,8 +2747,9 @@
       <c r="Q30"/>
       <c r="R30"/>
       <c r="S30"/>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="T30"/>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -2733,8 +2769,9 @@
       <c r="Q31"/>
       <c r="R31"/>
       <c r="S31"/>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="T31"/>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -2754,8 +2791,9 @@
       <c r="Q32"/>
       <c r="R32"/>
       <c r="S32"/>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="T32"/>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -2775,8 +2813,9 @@
       <c r="Q33"/>
       <c r="R33"/>
       <c r="S33"/>
-    </row>
-    <row r="34" spans="1:19">
+      <c r="T33"/>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -2796,8 +2835,9 @@
       <c r="Q34"/>
       <c r="R34"/>
       <c r="S34"/>
-    </row>
-    <row r="35" spans="1:19">
+      <c r="T34"/>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -2817,8 +2857,9 @@
       <c r="Q35"/>
       <c r="R35"/>
       <c r="S35"/>
-    </row>
-    <row r="36" spans="1:19">
+      <c r="T35"/>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -2838,8 +2879,9 @@
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36"/>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="T36"/>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -2859,8 +2901,9 @@
       <c r="Q37"/>
       <c r="R37"/>
       <c r="S37"/>
-    </row>
-    <row r="38" spans="1:19">
+      <c r="T37"/>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -2880,8 +2923,9 @@
       <c r="Q38"/>
       <c r="R38"/>
       <c r="S38"/>
-    </row>
-    <row r="39" spans="1:19">
+      <c r="T38"/>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -2901,8 +2945,9 @@
       <c r="Q39"/>
       <c r="R39"/>
       <c r="S39"/>
-    </row>
-    <row r="40" spans="1:19">
+      <c r="T39"/>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -2922,9 +2967,12 @@
       <c r="Q40"/>
       <c r="R40"/>
       <c r="S40"/>
+      <c r="T40"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S1"/>
+  <autoFilter ref="A1:T1">
+    <filterColumn colId="11"/>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/easy-trade/easy-settle/src/main/resources/doc/template.xlsx
+++ b/easy-trade/easy-settle/src/main/resources/doc/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="14955" windowHeight="4620" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="14955" windowHeight="4620"/>
   </bookViews>
   <sheets>
     <sheet name="商户对账单汇总" sheetId="1" r:id="rId1"/>
@@ -696,6 +696,69 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -755,69 +818,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -861,7 +861,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -884,14 +884,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525" cmpd="sng">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1193,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:P33"/>
+  <dimension ref="B2:P35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1216,18 +1216,18 @@
     <row r="3" spans="2:16" ht="50.25" customHeight="1" thickBot="1">
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
       <c r="N3" s="32"/>
       <c r="O3" s="3"/>
     </row>
@@ -1239,14 +1239,14 @@
       <c r="F4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="52"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="73"/>
     </row>
     <row r="5" spans="2:16" ht="21" customHeight="1">
       <c r="B5" s="25"/>
@@ -1256,14 +1256,14 @@
       <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="50"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="71"/>
     </row>
     <row r="6" spans="2:16" ht="21" customHeight="1">
       <c r="B6" s="25"/>
@@ -1273,14 +1273,14 @@
       <c r="F6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="50"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="71"/>
       <c r="O6"/>
     </row>
     <row r="7" spans="2:16" ht="21" customHeight="1">
@@ -1291,14 +1291,14 @@
       <c r="F7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="50"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="71"/>
       <c r="O7"/>
     </row>
     <row r="8" spans="2:16" ht="21" customHeight="1" thickBot="1">
@@ -1307,14 +1307,14 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="60"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="81"/>
       <c r="O8"/>
     </row>
     <row r="9" spans="2:16" ht="20.25" customHeight="1">
@@ -1402,605 +1402,558 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="2:16">
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="53">
-        <f>SUM(M30,M25)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="54"/>
-      <c r="G13" s="67" t="s">
+      <c r="C13" s="83"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="74">
+        <f>SUM(M32,M27)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="75"/>
+      <c r="G13" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="53">
-        <f>SUM(G25,I25,K25,G30,I30,K30)</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="54"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="58"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="74">
+        <f>SUM(G27,I27,K27,G32,I32,K32)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="75"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="79"/>
     </row>
     <row r="14" spans="2:16" ht="17.25" thickBot="1">
-      <c r="B14" s="64"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="56"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="77"/>
     </row>
     <row r="15" spans="2:16" ht="17.25" thickBot="1">
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="76"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="74" t="s">
+      <c r="E15" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="75"/>
-      <c r="G15" s="74" t="s">
+      <c r="F15" s="67"/>
+      <c r="G15" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="75"/>
-      <c r="I15" s="74" t="s">
+      <c r="H15" s="67"/>
+      <c r="I15" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="75"/>
-      <c r="K15" s="74" t="s">
+      <c r="J15" s="67"/>
+      <c r="K15" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="L15" s="75"/>
-      <c r="M15" s="74" t="s">
+      <c r="L15" s="67"/>
+      <c r="M15" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="N15" s="75"/>
+      <c r="N15" s="67"/>
     </row>
     <row r="16" spans="2:16" ht="17.25" thickBot="1">
-      <c r="B16" s="77"/>
-      <c r="C16" s="78"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="33"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="70">
-        <v>0</v>
-      </c>
-      <c r="H16" s="81"/>
-      <c r="I16" s="70">
-        <v>0</v>
-      </c>
-      <c r="J16" s="81"/>
-      <c r="K16" s="70">
-        <v>0</v>
-      </c>
-      <c r="L16" s="81"/>
-      <c r="M16" s="70">
-        <v>0</v>
-      </c>
-      <c r="N16" s="81"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="55">
+        <v>0</v>
+      </c>
+      <c r="H16" s="65"/>
+      <c r="I16" s="55">
+        <v>0</v>
+      </c>
+      <c r="J16" s="65"/>
+      <c r="K16" s="55">
+        <v>0</v>
+      </c>
+      <c r="L16" s="65"/>
+      <c r="M16" s="55">
+        <v>0</v>
+      </c>
+      <c r="N16" s="65"/>
     </row>
     <row r="17" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B17" s="77"/>
-      <c r="C17" s="78"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="33"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="70">
-        <v>0</v>
-      </c>
-      <c r="H17" s="81"/>
-      <c r="I17" s="70">
-        <v>0</v>
-      </c>
-      <c r="J17" s="81"/>
-      <c r="K17" s="70">
-        <v>0</v>
-      </c>
-      <c r="L17" s="81"/>
-      <c r="M17" s="70">
-        <v>0</v>
-      </c>
-      <c r="N17" s="81"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="55">
+        <v>0</v>
+      </c>
+      <c r="H17" s="65"/>
+      <c r="I17" s="55">
+        <v>0</v>
+      </c>
+      <c r="J17" s="65"/>
+      <c r="K17" s="55">
+        <v>0</v>
+      </c>
+      <c r="L17" s="65"/>
+      <c r="M17" s="55">
+        <v>0</v>
+      </c>
+      <c r="N17" s="65"/>
     </row>
     <row r="18" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B18" s="77"/>
-      <c r="C18" s="78"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="33"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="70">
-        <v>0</v>
-      </c>
-      <c r="H18" s="81"/>
-      <c r="I18" s="70">
-        <v>0</v>
-      </c>
-      <c r="J18" s="81"/>
-      <c r="K18" s="70">
-        <v>0</v>
-      </c>
-      <c r="L18" s="81"/>
-      <c r="M18" s="70">
-        <v>0</v>
-      </c>
-      <c r="N18" s="81"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="55">
+        <v>0</v>
+      </c>
+      <c r="H18" s="65"/>
+      <c r="I18" s="55">
+        <v>0</v>
+      </c>
+      <c r="J18" s="65"/>
+      <c r="K18" s="55">
+        <v>0</v>
+      </c>
+      <c r="L18" s="65"/>
+      <c r="M18" s="55">
+        <v>0</v>
+      </c>
+      <c r="N18" s="65"/>
     </row>
     <row r="19" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B19" s="77"/>
-      <c r="C19" s="78"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="33"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="70">
-        <v>0</v>
-      </c>
-      <c r="H19" s="81"/>
-      <c r="I19" s="70">
-        <v>0</v>
-      </c>
-      <c r="J19" s="81"/>
-      <c r="K19" s="70">
-        <v>0</v>
-      </c>
-      <c r="L19" s="81"/>
-      <c r="M19" s="70">
-        <v>0</v>
-      </c>
-      <c r="N19" s="81"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="55">
+        <v>0</v>
+      </c>
+      <c r="H19" s="65"/>
+      <c r="I19" s="55">
+        <v>0</v>
+      </c>
+      <c r="J19" s="65"/>
+      <c r="K19" s="55">
+        <v>0</v>
+      </c>
+      <c r="L19" s="65"/>
+      <c r="M19" s="55">
+        <v>0</v>
+      </c>
+      <c r="N19" s="65"/>
     </row>
     <row r="20" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B20" s="77"/>
-      <c r="C20" s="78"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="33"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="70">
-        <v>0</v>
-      </c>
-      <c r="H20" s="81"/>
-      <c r="I20" s="70">
-        <v>0</v>
-      </c>
-      <c r="J20" s="81"/>
-      <c r="K20" s="70">
-        <v>0</v>
-      </c>
-      <c r="L20" s="81"/>
-      <c r="M20" s="70">
-        <v>0</v>
-      </c>
-      <c r="N20" s="81"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="55">
+        <v>0</v>
+      </c>
+      <c r="H20" s="65"/>
+      <c r="I20" s="55">
+        <v>0</v>
+      </c>
+      <c r="J20" s="65"/>
+      <c r="K20" s="55">
+        <v>0</v>
+      </c>
+      <c r="L20" s="65"/>
+      <c r="M20" s="55">
+        <v>0</v>
+      </c>
+      <c r="N20" s="65"/>
     </row>
     <row r="21" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B21" s="77"/>
-      <c r="C21" s="78"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="33"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="70">
-        <v>0</v>
-      </c>
-      <c r="H21" s="81"/>
-      <c r="I21" s="70">
-        <v>0</v>
-      </c>
-      <c r="J21" s="81"/>
-      <c r="K21" s="70">
-        <v>0</v>
-      </c>
-      <c r="L21" s="81"/>
-      <c r="M21" s="70">
-        <v>0</v>
-      </c>
-      <c r="N21" s="81"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="55">
+        <v>0</v>
+      </c>
+      <c r="H21" s="65"/>
+      <c r="I21" s="55">
+        <v>0</v>
+      </c>
+      <c r="J21" s="65"/>
+      <c r="K21" s="55">
+        <v>0</v>
+      </c>
+      <c r="L21" s="65"/>
+      <c r="M21" s="55">
+        <v>0</v>
+      </c>
+      <c r="N21" s="65"/>
     </row>
     <row r="22" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B22" s="77"/>
-      <c r="C22" s="78"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="33"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="70">
-        <v>0</v>
-      </c>
-      <c r="H22" s="81"/>
-      <c r="I22" s="70">
-        <v>0</v>
-      </c>
-      <c r="J22" s="81"/>
-      <c r="K22" s="70">
-        <v>0</v>
-      </c>
-      <c r="L22" s="81"/>
-      <c r="M22" s="70">
-        <v>0</v>
-      </c>
-      <c r="N22" s="81"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="55">
+        <v>0</v>
+      </c>
+      <c r="H22" s="65"/>
+      <c r="I22" s="55">
+        <v>0</v>
+      </c>
+      <c r="J22" s="65"/>
+      <c r="K22" s="55">
+        <v>0</v>
+      </c>
+      <c r="L22" s="65"/>
+      <c r="M22" s="55">
+        <v>0</v>
+      </c>
+      <c r="N22" s="65"/>
     </row>
     <row r="23" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B23" s="77"/>
-      <c r="C23" s="78"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="33"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="70">
-        <v>0</v>
-      </c>
-      <c r="H23" s="81"/>
-      <c r="I23" s="70">
-        <v>0</v>
-      </c>
-      <c r="J23" s="81"/>
-      <c r="K23" s="70">
-        <v>0</v>
-      </c>
-      <c r="L23" s="81"/>
-      <c r="M23" s="70">
-        <v>0</v>
-      </c>
-      <c r="N23" s="81"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="55">
+        <v>0</v>
+      </c>
+      <c r="H23" s="65"/>
+      <c r="I23" s="55">
+        <v>0</v>
+      </c>
+      <c r="J23" s="65"/>
+      <c r="K23" s="55">
+        <v>0</v>
+      </c>
+      <c r="L23" s="65"/>
+      <c r="M23" s="55">
+        <v>0</v>
+      </c>
+      <c r="N23" s="65"/>
     </row>
     <row r="24" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B24" s="77"/>
-      <c r="C24" s="78"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="33"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="70">
-        <v>0</v>
-      </c>
-      <c r="H24" s="81"/>
-      <c r="I24" s="70">
-        <v>0</v>
-      </c>
-      <c r="J24" s="81"/>
-      <c r="K24" s="70">
-        <v>0</v>
-      </c>
-      <c r="L24" s="81"/>
-      <c r="M24" s="70">
-        <v>0</v>
-      </c>
-      <c r="N24" s="81"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="55">
+        <v>0</v>
+      </c>
+      <c r="H24" s="65"/>
+      <c r="I24" s="55">
+        <v>0</v>
+      </c>
+      <c r="J24" s="65"/>
+      <c r="K24" s="55">
+        <v>0</v>
+      </c>
+      <c r="L24" s="65"/>
+      <c r="M24" s="55">
+        <v>0</v>
+      </c>
+      <c r="N24" s="65"/>
     </row>
     <row r="25" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="62"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="55">
+        <v>0</v>
+      </c>
+      <c r="H25" s="65"/>
+      <c r="I25" s="55">
+        <v>0</v>
+      </c>
+      <c r="J25" s="65"/>
+      <c r="K25" s="55">
+        <v>0</v>
+      </c>
+      <c r="L25" s="65"/>
+      <c r="M25" s="55">
+        <v>0</v>
+      </c>
+      <c r="N25" s="65"/>
+    </row>
+    <row r="26" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B26" s="62"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="55">
+        <v>0</v>
+      </c>
+      <c r="H26" s="65"/>
+      <c r="I26" s="55">
+        <v>0</v>
+      </c>
+      <c r="J26" s="65"/>
+      <c r="K26" s="55">
+        <v>0</v>
+      </c>
+      <c r="L26" s="65"/>
+      <c r="M26" s="55">
+        <v>0</v>
+      </c>
+      <c r="N26" s="65"/>
+    </row>
+    <row r="27" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B27" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="72">
-        <f>SUM(E16:F24)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="73"/>
-      <c r="G25" s="85">
-        <f>SUM(G16:H24)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="86"/>
-      <c r="I25" s="85">
-        <f>SUM(I16:J24)</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="86"/>
-      <c r="K25" s="85">
-        <f>SUM(K16:L24)</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="86"/>
-      <c r="M25" s="85">
-        <f>SUM(M16:N24)</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="87"/>
-    </row>
-    <row r="26" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B26" s="76" t="s">
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="48">
+        <f>SUM(E16:F26)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="49"/>
+      <c r="G27" s="52">
+        <f>SUM(G16:H26)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="53"/>
+      <c r="I27" s="52">
+        <f>SUM(I16:J26)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="53"/>
+      <c r="K27" s="52">
+        <f>SUM(K16:L26)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="53"/>
+      <c r="M27" s="52">
+        <f>SUM(M16:N26)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="54"/>
+    </row>
+    <row r="28" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B28" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="35" t="s">
+      <c r="C28" s="68"/>
+      <c r="D28" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="74" t="s">
+      <c r="E28" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="75"/>
-      <c r="G26" s="74" t="s">
+      <c r="F28" s="67"/>
+      <c r="G28" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="75"/>
-      <c r="I26" s="74" t="s">
+      <c r="H28" s="67"/>
+      <c r="I28" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="75"/>
-      <c r="K26" s="74" t="s">
+      <c r="J28" s="67"/>
+      <c r="K28" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="75"/>
-      <c r="M26" s="74" t="s">
+      <c r="L28" s="67"/>
+      <c r="M28" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="N26" s="75"/>
-    </row>
-    <row r="27" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B27" s="68"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="70">
-        <v>0</v>
-      </c>
-      <c r="H27" s="71"/>
-      <c r="I27" s="70">
-        <v>0</v>
-      </c>
-      <c r="J27" s="71"/>
-      <c r="K27" s="70">
-        <v>0</v>
-      </c>
-      <c r="L27" s="71"/>
-      <c r="M27" s="70">
-        <v>0</v>
-      </c>
-      <c r="N27" s="71"/>
-    </row>
-    <row r="28" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B28" s="68"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="70">
-        <v>0</v>
-      </c>
-      <c r="H28" s="71"/>
-      <c r="I28" s="70">
-        <v>0</v>
-      </c>
-      <c r="J28" s="71"/>
-      <c r="K28" s="70">
-        <v>0</v>
-      </c>
-      <c r="L28" s="71"/>
-      <c r="M28" s="70">
-        <v>0</v>
-      </c>
-      <c r="N28" s="71"/>
+      <c r="N28" s="67"/>
     </row>
     <row r="29" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B29" s="68"/>
-      <c r="C29" s="69"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="70">
-        <v>0</v>
-      </c>
-      <c r="H29" s="71"/>
-      <c r="I29" s="70">
-        <v>0</v>
-      </c>
-      <c r="J29" s="71"/>
-      <c r="K29" s="70">
-        <v>0</v>
-      </c>
-      <c r="L29" s="71"/>
-      <c r="M29" s="70">
-        <v>0</v>
-      </c>
-      <c r="N29" s="71"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="55">
+        <v>0</v>
+      </c>
+      <c r="H29" s="56"/>
+      <c r="I29" s="55">
+        <v>0</v>
+      </c>
+      <c r="J29" s="56"/>
+      <c r="K29" s="55">
+        <v>0</v>
+      </c>
+      <c r="L29" s="56"/>
+      <c r="M29" s="55">
+        <v>0</v>
+      </c>
+      <c r="N29" s="56"/>
     </row>
     <row r="30" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="55">
+        <v>0</v>
+      </c>
+      <c r="H30" s="56"/>
+      <c r="I30" s="55">
+        <v>0</v>
+      </c>
+      <c r="J30" s="56"/>
+      <c r="K30" s="55">
+        <v>0</v>
+      </c>
+      <c r="L30" s="56"/>
+      <c r="M30" s="55">
+        <v>0</v>
+      </c>
+      <c r="N30" s="56"/>
+    </row>
+    <row r="31" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="55">
+        <v>0</v>
+      </c>
+      <c r="H31" s="56"/>
+      <c r="I31" s="55">
+        <v>0</v>
+      </c>
+      <c r="J31" s="56"/>
+      <c r="K31" s="55">
+        <v>0</v>
+      </c>
+      <c r="L31" s="56"/>
+      <c r="M31" s="55">
+        <v>0</v>
+      </c>
+      <c r="N31" s="56"/>
+    </row>
+    <row r="32" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B32" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="72">
-        <f>SUM(E27:F29)</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="73"/>
-      <c r="G30" s="85">
-        <f>SUM(G27:H29)</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="86"/>
-      <c r="I30" s="85">
-        <f>SUM(I27:J29)</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="86"/>
-      <c r="K30" s="85">
-        <f>SUM(K27:L29)</f>
-        <v>0</v>
-      </c>
-      <c r="L30" s="86"/>
-      <c r="M30" s="85">
-        <f>SUM(M27:N29)</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="87"/>
-    </row>
-    <row r="31" spans="2:14">
-      <c r="B31" s="43" t="s">
+      <c r="C32" s="46"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="48">
+        <f>SUM(E29:F31)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="49"/>
+      <c r="G32" s="52">
+        <f>SUM(G29:H31)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="53"/>
+      <c r="I32" s="52">
+        <f>SUM(I29:J31)</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="53"/>
+      <c r="K32" s="52">
+        <f>SUM(K29:L31)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="53"/>
+      <c r="M32" s="52">
+        <f>SUM(M29:N31)</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="54"/>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="84">
-        <f>SUM(G30,G25)</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="83"/>
-      <c r="I31" s="84">
-        <f>SUM(I30,I25)</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="83"/>
-      <c r="K31" s="84">
-        <f>SUM(K30,K25)</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="83"/>
-      <c r="M31" s="84">
-        <f>SUM(M30,M25)</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="88"/>
-    </row>
-    <row r="32" spans="2:14">
-      <c r="B32" s="27"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="19"/>
-    </row>
-    <row r="33" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B33" s="28"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="20"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="51">
+        <f>SUM(G32,G27)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="50"/>
+      <c r="I33" s="51">
+        <f>SUM(I32,I27)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="50"/>
+      <c r="K33" s="51">
+        <f>SUM(K32,K27)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="50"/>
+      <c r="M33" s="51">
+        <f>SUM(M32,M27)</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="59"/>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34" s="27"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="19"/>
+    </row>
+    <row r="35" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B35" s="28"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="111">
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G21:H21"/>
+  <mergeCells count="123">
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="I20:J20"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="I20:J20"/>
     <mergeCell ref="M20:N20"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M24:N24"/>
     <mergeCell ref="D3:M3"/>
     <mergeCell ref="G5:N5"/>
     <mergeCell ref="G4:N4"/>
@@ -2013,6 +1966,111 @@
     <mergeCell ref="E13:F14"/>
     <mergeCell ref="G13:J14"/>
     <mergeCell ref="K13:L14"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="M33:N33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.37" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2025,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
